--- a/CashFlow/EL_cashflow.xlsx
+++ b/CashFlow/EL_cashflow.xlsx
@@ -67,14 +67,14 @@
   <sheetPr>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:AN31"/>
+  <dimension ref="A1:AO31"/>
   <sheetViews>
     <sheetView windowProtection="0" tabSelected="0" showWhiteSpace="0" showOutlineSymbols="0" showFormulas="0" rightToLeft="0" showZeros="1" showRuler="1" showRowColHeaders="1" showGridLines="1" defaultGridColor="1" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" bestFit="1" customWidth="1" width="27.500000000000004"/>
-    <col min="2" max="2" bestFit="1" customWidth="1" width="15.400000000000002"/>
+    <col min="2" max="2" bestFit="1" customWidth="1" width="14.3"/>
     <col min="3" max="3" bestFit="1" customWidth="1" width="15.400000000000002"/>
     <col min="4" max="4" bestFit="1" customWidth="1" width="15.400000000000002"/>
     <col min="5" max="5" bestFit="1" customWidth="1" width="15.400000000000002"/>
@@ -113,6 +113,7 @@
     <col min="38" max="38" bestFit="1" customWidth="1" width="15.400000000000002"/>
     <col min="39" max="39" bestFit="1" customWidth="1" width="15.400000000000002"/>
     <col min="40" max="40" bestFit="1" customWidth="1" width="15.400000000000002"/>
+    <col min="41" max="41" bestFit="1" customWidth="1" width="15.400000000000002"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -122,120 +123,123 @@
         </is>
       </c>
       <c r="B1" s="2">
+        <v>44286.0</v>
+      </c>
+      <c r="C1" s="2">
         <v>44196.0</v>
       </c>
-      <c r="C1" s="2">
+      <c r="D1" s="2">
         <v>44104.0</v>
       </c>
-      <c r="D1" s="2">
+      <c r="E1" s="2">
         <v>44012.0</v>
       </c>
-      <c r="E1" s="2">
+      <c r="F1" s="2">
         <v>43921.0</v>
       </c>
-      <c r="F1" s="2">
+      <c r="G1" s="2">
         <v>43830.0</v>
       </c>
-      <c r="G1" s="2">
+      <c r="H1" s="2">
         <v>43738.0</v>
       </c>
-      <c r="H1" s="2">
+      <c r="I1" s="2">
         <v>43646.0</v>
       </c>
-      <c r="I1" s="2">
+      <c r="J1" s="2">
         <v>43555.0</v>
       </c>
-      <c r="J1" s="2">
+      <c r="K1" s="2">
         <v>43465.0</v>
       </c>
-      <c r="K1" s="2">
+      <c r="L1" s="2">
         <v>43373.0</v>
       </c>
-      <c r="L1" s="2">
+      <c r="M1" s="2">
         <v>43281.0</v>
       </c>
-      <c r="M1" s="2">
+      <c r="N1" s="2">
         <v>43190.0</v>
       </c>
-      <c r="N1" s="2">
+      <c r="O1" s="2">
         <v>43100.0</v>
       </c>
-      <c r="O1" s="2">
+      <c r="P1" s="2">
         <v>43008.0</v>
       </c>
-      <c r="P1" s="2">
+      <c r="Q1" s="2">
         <v>42916.0</v>
       </c>
-      <c r="Q1" s="2">
+      <c r="R1" s="2">
         <v>42825.0</v>
       </c>
-      <c r="R1" s="2">
+      <c r="S1" s="2">
         <v>42735.0</v>
       </c>
-      <c r="S1" s="2">
+      <c r="T1" s="2">
         <v>42643.0</v>
       </c>
-      <c r="T1" s="2">
+      <c r="U1" s="2">
         <v>42551.0</v>
       </c>
-      <c r="U1" s="2">
+      <c r="V1" s="2">
         <v>42460.0</v>
       </c>
-      <c r="V1" s="2">
+      <c r="W1" s="2">
         <v>42369.0</v>
       </c>
-      <c r="W1" s="2">
+      <c r="X1" s="2">
         <v>42277.0</v>
       </c>
-      <c r="X1" s="2">
+      <c r="Y1" s="2">
         <v>42185.0</v>
       </c>
-      <c r="Y1" s="2">
+      <c r="Z1" s="2">
         <v>42094.0</v>
       </c>
-      <c r="Z1" s="2">
+      <c r="AA1" s="2">
         <v>42004.0</v>
       </c>
-      <c r="AA1" s="2">
+      <c r="AB1" s="2">
         <v>41912.0</v>
       </c>
-      <c r="AB1" s="2">
+      <c r="AC1" s="2">
         <v>41820.0</v>
       </c>
-      <c r="AC1" s="2">
+      <c r="AD1" s="2">
         <v>41729.0</v>
       </c>
-      <c r="AD1" s="2">
+      <c r="AE1" s="2">
         <v>41639.0</v>
       </c>
-      <c r="AE1" s="2">
+      <c r="AF1" s="2">
         <v>41547.0</v>
       </c>
-      <c r="AF1" s="2">
+      <c r="AG1" s="2">
         <v>41455.0</v>
       </c>
-      <c r="AG1" s="2">
+      <c r="AH1" s="2">
         <v>41364.0</v>
       </c>
-      <c r="AH1" s="2">
+      <c r="AI1" s="2">
         <v>41274.0</v>
       </c>
-      <c r="AI1" s="2">
+      <c r="AJ1" s="2">
         <v>41182.0</v>
       </c>
-      <c r="AJ1" s="2">
+      <c r="AK1" s="2">
         <v>41090.0</v>
       </c>
-      <c r="AK1" s="2">
+      <c r="AL1" s="2">
         <v>40999.0</v>
       </c>
-      <c r="AL1" s="2">
+      <c r="AM1" s="2">
         <v>40908.0</v>
       </c>
-      <c r="AM1" s="2">
+      <c r="AN1" s="2">
         <v>40816.0</v>
       </c>
-      <c r="AN1" s="2">
+      <c r="AO1" s="2">
         <v>40724.0</v>
       </c>
     </row>
@@ -246,120 +250,123 @@
         </is>
       </c>
       <c r="B2" s="0" t="n">
+        <v>-468000000.0</v>
+      </c>
+      <c r="C2" s="0" t="n">
         <v>928000000.0</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="D2" s="0" t="n">
         <v>612000000.0</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="E2" s="0" t="n">
         <v>687000000.0</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="F2" s="0" t="n">
         <v>1307000000.0</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="G2" s="0" t="n">
         <v>1870000000.0</v>
       </c>
-      <c r="G2" s="0" t="n">
+      <c r="H2" s="0" t="n">
         <v>1890000000.0</v>
       </c>
-      <c r="H2" s="0" t="n">
+      <c r="I2" s="0" t="n">
         <v>1794000000.0</v>
       </c>
-      <c r="I2" s="0" t="n">
+      <c r="J2" s="0" t="n">
         <v>1824000000.0</v>
       </c>
-      <c r="J2" s="0" t="n">
+      <c r="K2" s="0" t="n">
         <v>1641000000.0</v>
       </c>
-      <c r="K2" s="0" t="n">
+      <c r="L2" s="0" t="n">
         <v>1189000000.0</v>
       </c>
-      <c r="L2" s="0" t="n">
+      <c r="M2" s="0" t="n">
         <v>1117000000.0</v>
       </c>
-      <c r="M2" s="0" t="n">
+      <c r="N2" s="0" t="n">
         <v>1159000000.0</v>
       </c>
-      <c r="N2" s="0" t="n">
+      <c r="O2" s="0" t="n">
         <v>1085000000.0</v>
       </c>
-      <c r="O2" s="0" t="n">
+      <c r="P2" s="0" t="n">
         <v>1390000000.0</v>
       </c>
-      <c r="P2" s="0" t="n">
+      <c r="Q2" s="0" t="n">
         <v>1256000000.0</v>
       </c>
-      <c r="Q2" s="0" t="n">
+      <c r="R2" s="0" t="n">
         <v>1121000000.0</v>
       </c>
-      <c r="R2" s="0" t="n">
+      <c r="S2" s="0" t="n">
         <v>1087000000.0</v>
       </c>
-      <c r="S2" s="0" t="n">
+      <c r="T2" s="0" t="n">
         <v>1106000000.0</v>
       </c>
-      <c r="T2" s="0" t="n">
+      <c r="U2" s="0" t="n">
         <v>1121000000.0</v>
       </c>
-      <c r="U2" s="0" t="n">
+      <c r="V2" s="0" t="n">
         <v>1180400000.0</v>
       </c>
-      <c r="V2" s="0" t="n">
+      <c r="W2" s="0" t="n">
         <v>1187100000.0</v>
       </c>
-      <c r="W2" s="0" t="n">
+      <c r="X2" s="0" t="n">
         <v>1175800000.0</v>
       </c>
-      <c r="X2" s="0" t="n">
+      <c r="Y2" s="0" t="n">
         <v>1094000000.0</v>
       </c>
-      <c r="Y2" s="0" t="n">
+      <c r="Z2" s="0" t="n">
         <v>1198000000.0</v>
       </c>
-      <c r="Z2" s="0" t="n">
+      <c r="AA2" s="0" t="n">
         <v>1139000000.0</v>
       </c>
-      <c r="AA2" s="0" t="n">
+      <c r="AB2" s="0" t="n">
         <v>1136500000.0</v>
       </c>
-      <c r="AB2" s="0" t="n">
+      <c r="AC2" s="0" t="n">
         <v>1209100000.0</v>
       </c>
-      <c r="AC2" s="0" t="n">
+      <c r="AD2" s="0" t="n">
         <v>1046600000.0</v>
       </c>
-      <c r="AD2" s="0" t="n">
+      <c r="AE2" s="0" t="n">
         <v>1011800000.0</v>
       </c>
-      <c r="AE2" s="0" t="n">
+      <c r="AF2" s="0" t="n">
         <v>1026000000.0</v>
       </c>
-      <c r="AF2" s="0" t="n">
+      <c r="AG2" s="0" t="n">
         <v>1023800000.0</v>
       </c>
-      <c r="AG2" s="0" t="n">
+      <c r="AH2" s="0" t="n">
         <v>980100000.0</v>
       </c>
-      <c r="AH2" s="0" t="n">
+      <c r="AI2" s="0" t="n">
         <v>932500000.0</v>
       </c>
-      <c r="AI2" s="0" t="n">
+      <c r="AJ2" s="0" t="n">
         <v>881500000.0</v>
       </c>
-      <c r="AJ2" s="0" t="n">
+      <c r="AK2" s="0" t="n">
         <v>860500000.0</v>
       </c>
-      <c r="AK2" s="0" t="n">
+      <c r="AL2" s="0" t="n">
         <v>851500000.0</v>
       </c>
-      <c r="AL2" s="0" t="n">
+      <c r="AM2" s="0" t="n">
         <v>845300000.0</v>
       </c>
-      <c r="AM2" s="0" t="n">
+      <c r="AN2" s="0" t="n">
         <v>792800000.0</v>
       </c>
-      <c r="AN2" s="0" t="n">
+      <c r="AO2" s="0" t="n">
         <v>703800000.0</v>
       </c>
     </row>
@@ -369,121 +376,126 @@
           <t>Depreciation &amp; Amortization</t>
         </is>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C3" s="0" t="n">
         <v>640000000.0</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="D3" s="0" t="n">
         <v>624000000.0</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="E3" s="0" t="n">
         <v>611000000.0</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="F3" s="0" t="n">
         <v>510000000.0</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="G3" s="0" t="n">
         <v>575000000.0</v>
       </c>
-      <c r="G3" s="0" t="n">
+      <c r="H3" s="0" t="n">
         <v>568000000.0</v>
       </c>
-      <c r="H3" s="0" t="n">
+      <c r="I3" s="0" t="n">
         <v>557000000.0</v>
       </c>
-      <c r="I3" s="0" t="n">
+      <c r="J3" s="0" t="n">
         <v>636000000.0</v>
       </c>
-      <c r="J3" s="0" t="n">
+      <c r="K3" s="0" t="n">
         <v>544000000.0</v>
       </c>
-      <c r="K3" s="0" t="n">
+      <c r="L3" s="0" t="n">
         <v>536000000.0</v>
       </c>
-      <c r="L3" s="0" t="n">
+      <c r="M3" s="0" t="n">
         <v>531000000.0</v>
       </c>
-      <c r="M3" s="0" t="n">
+      <c r="N3" s="0" t="n">
         <v>516000000.0</v>
       </c>
-      <c r="N3" s="0" t="n">
+      <c r="O3" s="0" t="n">
         <v>502000000.0</v>
       </c>
-      <c r="O3" s="0" t="n">
+      <c r="P3" s="0" t="n">
         <v>485000000.0</v>
       </c>
-      <c r="P3" s="0" t="n">
+      <c r="Q3" s="0" t="n">
         <v>464000000.0</v>
       </c>
-      <c r="Q3" s="0" t="n">
+      <c r="R3" s="0" t="n">
         <v>447000000.0</v>
       </c>
-      <c r="R3" s="0" t="n">
+      <c r="S3" s="0" t="n">
         <v>431000000.0</v>
       </c>
-      <c r="S3" s="0" t="n">
+      <c r="T3" s="0" t="n">
         <v>423000000.0</v>
       </c>
-      <c r="T3" s="0" t="n">
+      <c r="U3" s="0" t="n">
         <v>415000000.0</v>
       </c>
-      <c r="U3" s="0" t="n">
+      <c r="V3" s="0" t="n">
         <v>415400000.0</v>
       </c>
-      <c r="V3" s="0" t="n">
+      <c r="W3" s="0" t="n">
         <v>412400000.0</v>
       </c>
-      <c r="W3" s="0" t="n">
+      <c r="X3" s="0" t="n">
         <v>406400000.0</v>
       </c>
-      <c r="X3" s="0" t="n">
+      <c r="Y3" s="0" t="n">
         <v>409000000.0</v>
       </c>
-      <c r="Y3" s="0" t="n">
+      <c r="Z3" s="0" t="n">
         <v>403200000.0</v>
       </c>
-      <c r="Z3" s="0" t="n">
+      <c r="AA3" s="0" t="n">
         <v>398800000.0</v>
       </c>
-      <c r="AA3" s="0" t="n">
+      <c r="AB3" s="0" t="n">
         <v>396300000.0</v>
       </c>
-      <c r="AB3" s="0" t="n">
+      <c r="AC3" s="0" t="n">
         <v>384600000.0</v>
       </c>
-      <c r="AC3" s="0" t="n">
+      <c r="AD3" s="0" t="n">
         <v>387400000.0</v>
       </c>
-      <c r="AD3" s="0" t="n">
+      <c r="AE3" s="0" t="n">
         <v>382200000.0</v>
       </c>
-      <c r="AE3" s="0" t="n">
+      <c r="AF3" s="0" t="n">
         <v>366000000.0</v>
       </c>
-      <c r="AF3" s="0" t="n">
+      <c r="AG3" s="0" t="n">
         <v>354600000.0</v>
       </c>
-      <c r="AG3" s="0" t="n">
+      <c r="AH3" s="0" t="n">
         <v>349300000.0</v>
       </c>
-      <c r="AH3" s="0" t="n">
+      <c r="AI3" s="0" t="n">
         <v>333300000.0</v>
       </c>
-      <c r="AI3" s="0" t="n">
+      <c r="AJ3" s="0" t="n">
         <v>325400000.0</v>
       </c>
-      <c r="AJ3" s="0" t="n">
+      <c r="AK3" s="0" t="n">
         <v>317500000.0</v>
       </c>
-      <c r="AK3" s="0" t="n">
+      <c r="AL3" s="0" t="n">
         <v>298900000.0</v>
       </c>
-      <c r="AL3" s="0" t="n">
+      <c r="AM3" s="0" t="n">
         <v>338100000.0</v>
       </c>
-      <c r="AM3" s="0" t="n">
+      <c r="AN3" s="0" t="n">
         <v>333200000.0</v>
       </c>
-      <c r="AN3" s="0" t="n">
+      <c r="AO3" s="0" t="n">
         <v>332400000.0</v>
       </c>
     </row>
@@ -493,121 +505,126 @@
           <t>Non Cash Items (Other)</t>
         </is>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C4" s="0" t="n">
         <v>1531000000.0</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="D4" s="0" t="n">
         <v>938000000.0</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="E4" s="0" t="n">
         <v>984000000.0</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="F4" s="0" t="n">
         <v>-312000000.0</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="G4" s="0" t="n">
         <v>-372000000.0</v>
       </c>
-      <c r="G4" s="0" t="n">
+      <c r="H4" s="0" t="n">
         <v>198000000.0</v>
       </c>
-      <c r="H4" s="0" t="n">
+      <c r="I4" s="0" t="n">
         <v>168000000.0</v>
       </c>
-      <c r="I4" s="0" t="n">
+      <c r="J4" s="0" t="n">
         <v>172000000.0</v>
       </c>
-      <c r="J4" s="0" t="n">
+      <c r="K4" s="0" t="n">
         <v>218000000.0</v>
       </c>
-      <c r="K4" s="0" t="n">
+      <c r="L4" s="0" t="n">
         <v>334000000.0</v>
       </c>
-      <c r="L4" s="0" t="n">
+      <c r="M4" s="0" t="n">
         <v>350000000.0</v>
       </c>
-      <c r="M4" s="0" t="n">
+      <c r="N4" s="0" t="n">
         <v>245000000.0</v>
       </c>
-      <c r="N4" s="0" t="n">
+      <c r="O4" s="0" t="n">
         <v>234000000.0</v>
       </c>
-      <c r="O4" s="0" t="n">
+      <c r="P4" s="0" t="n">
         <v>68000000.0</v>
       </c>
-      <c r="P4" s="0" t="n">
+      <c r="Q4" s="0" t="n">
         <v>59000000.0</v>
       </c>
-      <c r="Q4" s="0" t="n">
+      <c r="R4" s="0" t="n">
         <v>34000000.0</v>
       </c>
-      <c r="R4" s="0" t="n">
+      <c r="S4" s="0" t="n">
         <v>78000000.0</v>
       </c>
-      <c r="S4" s="0" t="n">
+      <c r="T4" s="0" t="n">
         <v>102000000.0</v>
       </c>
-      <c r="T4" s="0" t="n">
+      <c r="U4" s="0" t="n">
         <v>108000000.0</v>
       </c>
-      <c r="U4" s="0" t="n">
+      <c r="V4" s="0" t="n">
         <v>162100000.0</v>
       </c>
-      <c r="V4" s="0" t="n">
+      <c r="W4" s="0" t="n">
         <v>127500000.0</v>
       </c>
-      <c r="W4" s="0" t="n">
+      <c r="X4" s="0" t="n">
         <v>102100000.0</v>
       </c>
-      <c r="X4" s="0" t="n">
+      <c r="Y4" s="0" t="n">
         <v>91000000.0</v>
       </c>
-      <c r="Y4" s="0" t="n">
+      <c r="Z4" s="0" t="n">
         <v>81800000.0</v>
       </c>
-      <c r="Z4" s="0" t="n">
+      <c r="AA4" s="0" t="n">
         <v>137100000.0</v>
       </c>
-      <c r="AA4" s="0" t="n">
+      <c r="AB4" s="0" t="n">
         <v>151700000.0</v>
       </c>
-      <c r="AB4" s="0" t="n">
+      <c r="AC4" s="0" t="n">
         <v>136800000.0</v>
       </c>
-      <c r="AC4" s="0" t="n">
+      <c r="AD4" s="0" t="n">
         <v>134800000.0</v>
       </c>
-      <c r="AD4" s="0" t="n">
+      <c r="AE4" s="0" t="n">
         <v>87800000.0</v>
       </c>
-      <c r="AE4" s="0" t="n">
+      <c r="AF4" s="0" t="n">
         <v>52700000.0</v>
       </c>
-      <c r="AF4" s="0" t="n">
+      <c r="AG4" s="0" t="n">
         <v>56200000.0</v>
       </c>
-      <c r="AG4" s="0" t="n">
+      <c r="AH4" s="0" t="n">
         <v>28000000.0</v>
       </c>
-      <c r="AH4" s="0" t="n">
+      <c r="AI4" s="0" t="n">
         <v>4000000.0</v>
       </c>
-      <c r="AI4" s="0" t="n">
+      <c r="AJ4" s="0" t="n">
         <v>8100000.0</v>
       </c>
-      <c r="AJ4" s="0" t="n">
+      <c r="AK4" s="0" t="n">
         <v>6300000.0</v>
       </c>
-      <c r="AK4" s="0" t="n">
+      <c r="AL4" s="0" t="n">
         <v>21100000.0</v>
       </c>
-      <c r="AL4" s="0" t="n">
+      <c r="AM4" s="0" t="n">
         <v>1700000.0</v>
       </c>
-      <c r="AM4" s="0" t="n">
+      <c r="AN4" s="0" t="n">
         <v>16400000.0</v>
       </c>
-      <c r="AN4" s="0" t="n">
+      <c r="AO4" s="0" t="n">
         <v>24400000.0</v>
       </c>
     </row>
@@ -617,121 +634,126 @@
           <t>Accounts Receivable Change</t>
         </is>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C5" s="0" t="n">
         <v>252000000.0</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="D5" s="0" t="n">
         <v>505000000.0</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="E5" s="0" t="n">
         <v>625000000.0</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="F5" s="0" t="n">
         <v>160000000.0</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="G5" s="0" t="n">
         <v>-173000000.0</v>
       </c>
-      <c r="G5" s="0" t="n">
+      <c r="H5" s="0" t="n">
         <v>-110000000.0</v>
       </c>
-      <c r="H5" s="0" t="n">
+      <c r="I5" s="0" t="n">
         <v>-169000000.0</v>
       </c>
-      <c r="I5" s="0" t="n">
+      <c r="J5" s="0" t="n">
         <v>-157000000.0</v>
       </c>
-      <c r="J5" s="0" t="n">
+      <c r="K5" s="0" t="n">
         <v>-167000000.0</v>
       </c>
-      <c r="K5" s="0" t="n">
+      <c r="L5" s="0" t="n">
         <v>-261000000.0</v>
       </c>
-      <c r="L5" s="0" t="n">
+      <c r="M5" s="0" t="n">
         <v>-105000000.0</v>
       </c>
-      <c r="M5" s="0" t="n">
+      <c r="N5" s="0" t="n">
         <v>-175000000.0</v>
       </c>
-      <c r="N5" s="0" t="n">
+      <c r="O5" s="0" t="n">
         <v>-130000000.0</v>
       </c>
-      <c r="O5" s="0" t="n">
+      <c r="P5" s="0" t="n">
         <v>-117000000.0</v>
-      </c>
-      <c r="P5" s="0" t="n">
-        <v>-92000000.0</v>
       </c>
       <c r="Q5" s="0" t="n">
         <v>-92000000.0</v>
       </c>
       <c r="R5" s="0" t="n">
+        <v>-92000000.0</v>
+      </c>
+      <c r="S5" s="0" t="n">
         <v>-67000000.0</v>
       </c>
-      <c r="S5" s="0" t="n">
+      <c r="T5" s="0" t="n">
         <v>-77000000.0</v>
       </c>
-      <c r="T5" s="0" t="n">
+      <c r="U5" s="0" t="n">
         <v>-101000000.0</v>
       </c>
-      <c r="U5" s="0" t="n">
+      <c r="V5" s="0" t="n">
         <v>-53800000.0</v>
       </c>
-      <c r="V5" s="0" t="n">
+      <c r="W5" s="0" t="n">
         <v>-64200000.0</v>
       </c>
-      <c r="W5" s="0" t="n">
+      <c r="X5" s="0" t="n">
         <v>-118100000.0</v>
       </c>
-      <c r="X5" s="0" t="n">
+      <c r="Y5" s="0" t="n">
         <v>103000000.0</v>
       </c>
-      <c r="Y5" s="0" t="n">
+      <c r="Z5" s="0" t="n">
         <v>-63700000.0</v>
       </c>
-      <c r="Z5" s="0" t="n">
+      <c r="AA5" s="0" t="n">
         <v>12400000.0</v>
       </c>
-      <c r="AA5" s="0" t="n">
+      <c r="AB5" s="0" t="n">
         <v>11000000.0</v>
       </c>
-      <c r="AB5" s="0" t="n">
+      <c r="AC5" s="0" t="n">
         <v>-196200000.0</v>
       </c>
-      <c r="AC5" s="0" t="n">
+      <c r="AD5" s="0" t="n">
         <v>-42700000.0</v>
       </c>
-      <c r="AD5" s="0" t="n">
+      <c r="AE5" s="0" t="n">
         <v>13500000.0</v>
       </c>
-      <c r="AE5" s="0" t="n">
+      <c r="AF5" s="0" t="n">
         <v>30000000.0</v>
       </c>
-      <c r="AF5" s="0" t="n">
+      <c r="AG5" s="0" t="n">
         <v>-113000000.0</v>
       </c>
-      <c r="AG5" s="0" t="n">
+      <c r="AH5" s="0" t="n">
         <v>-78400000.0</v>
       </c>
-      <c r="AH5" s="0" t="n">
+      <c r="AI5" s="0" t="n">
         <v>-128900000.0</v>
       </c>
-      <c r="AI5" s="0" t="n">
+      <c r="AJ5" s="0" t="n">
         <v>-214400000.0</v>
       </c>
-      <c r="AJ5" s="0" t="n">
+      <c r="AK5" s="0" t="n">
         <v>-178400000.0</v>
       </c>
-      <c r="AK5" s="0" t="n">
+      <c r="AL5" s="0" t="n">
         <v>-87800000.0</v>
       </c>
-      <c r="AL5" s="0" t="n">
+      <c r="AM5" s="0" t="n">
         <v>-231200000.0</v>
       </c>
-      <c r="AM5" s="0" t="n">
+      <c r="AN5" s="0" t="n">
         <v>-237600000.0</v>
       </c>
-      <c r="AN5" s="0" t="n">
+      <c r="AO5" s="0" t="n">
         <v>-124700000.0</v>
       </c>
     </row>
@@ -741,123 +763,128 @@
           <t>Change in inventories</t>
         </is>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C6" s="0" t="n">
         <v>8502000000.0</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="D6" s="0" t="n">
         <v>8397000000.0</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="E6" s="0" t="n">
         <v>6204000000.0</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="F6" s="0" t="n">
         <v>3913000000.0</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="G6" s="0" t="n">
         <v>1735000000.0</v>
       </c>
-      <c r="G6" s="0" t="n">
+      <c r="H6" s="0" t="n">
         <v>-422000000.0</v>
       </c>
-      <c r="H6" s="0" t="n">
+      <c r="I6" s="0" t="n">
         <v>-375000000.0</v>
       </c>
-      <c r="I6" s="0" t="n">
+      <c r="J6" s="0" t="n">
         <v>-331000000.0</v>
       </c>
-      <c r="J6" s="0" t="n">
+      <c r="K6" s="0" t="n">
         <v>-86000000.0</v>
       </c>
-      <c r="K6" s="0" t="n">
+      <c r="L6" s="0" t="n">
         <v>-117000000.0</v>
       </c>
-      <c r="L6" s="0" t="n">
+      <c r="M6" s="0" t="n">
         <v>-225000000.0</v>
       </c>
-      <c r="M6" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="N6" s="0" t="n">
+      <c r="N6" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O6" s="0" t="n">
         <v>-97000000.0</v>
       </c>
-      <c r="O6" s="0" t="n">
+      <c r="P6" s="0" t="n">
         <v>-70000000.0</v>
       </c>
-      <c r="P6" s="0" t="n">
+      <c r="Q6" s="0" t="n">
         <v>-85000000.0</v>
       </c>
-      <c r="Q6" s="0" t="n">
+      <c r="R6" s="0" t="n">
         <v>-63000000.0</v>
       </c>
-      <c r="R6" s="0" t="n">
+      <c r="S6" s="0" t="n">
         <v>-93000000.0</v>
       </c>
-      <c r="S6" s="0" t="n">
+      <c r="T6" s="0" t="n">
         <v>-117000000.0</v>
       </c>
-      <c r="T6" s="0" t="n">
+      <c r="U6" s="0" t="n">
         <v>-69000000.0</v>
       </c>
-      <c r="U6" s="0" t="n">
+      <c r="V6" s="0" t="n">
         <v>-77900000.0</v>
       </c>
-      <c r="V6" s="0" t="n">
+      <c r="W6" s="0" t="n">
         <v>-31100000.0</v>
       </c>
-      <c r="W6" s="0" t="n">
+      <c r="X6" s="0" t="n">
         <v>700000.0</v>
       </c>
-      <c r="X6" s="0" t="n">
+      <c r="Y6" s="0" t="n">
         <v>-26000000.0</v>
       </c>
-      <c r="Y6" s="0" t="n">
+      <c r="Z6" s="0" t="n">
         <v>35500000.0</v>
       </c>
-      <c r="Z6" s="0" t="n">
+      <c r="AA6" s="0" t="n">
         <v>-36800000.0</v>
       </c>
-      <c r="AA6" s="0" t="n">
+      <c r="AB6" s="0" t="n">
         <v>-108400000.0</v>
       </c>
-      <c r="AB6" s="0" t="n">
+      <c r="AC6" s="0" t="n">
         <v>-156800000.0</v>
       </c>
-      <c r="AC6" s="0" t="n">
+      <c r="AD6" s="0" t="n">
         <v>-217700000.0</v>
       </c>
-      <c r="AD6" s="0" t="n">
+      <c r="AE6" s="0" t="n">
         <v>-159100000.0</v>
       </c>
-      <c r="AE6" s="0" t="n">
+      <c r="AF6" s="0" t="n">
         <v>-133400000.0</v>
       </c>
-      <c r="AF6" s="0" t="n">
+      <c r="AG6" s="0" t="n">
         <v>-134500000.0</v>
       </c>
-      <c r="AG6" s="0" t="n">
+      <c r="AH6" s="0" t="n">
         <v>-111400000.0</v>
       </c>
-      <c r="AH6" s="0" t="n">
+      <c r="AI6" s="0" t="n">
         <v>-88700000.0</v>
       </c>
-      <c r="AI6" s="0" t="n">
+      <c r="AJ6" s="0" t="n">
         <v>-79000000.0</v>
       </c>
-      <c r="AJ6" s="0" t="n">
+      <c r="AK6" s="0" t="n">
         <v>-41200000.0</v>
       </c>
-      <c r="AK6" s="0" t="n">
+      <c r="AL6" s="0" t="n">
         <v>-28700000.0</v>
       </c>
-      <c r="AL6" s="0" t="n">
+      <c r="AM6" s="0" t="n">
         <v>-36100000.0</v>
       </c>
-      <c r="AM6" s="0" t="n">
+      <c r="AN6" s="0" t="n">
         <v>-81900000.0</v>
       </c>
-      <c r="AN6" s="0" t="n">
+      <c r="AO6" s="0" t="n">
         <v>-95100000.0</v>
       </c>
     </row>
@@ -867,121 +894,126 @@
           <t>Accounts Payable Change</t>
         </is>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C7" s="0" t="n">
         <v>130000000.0</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="D7" s="0" t="n">
         <v>71000000.0</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="E7" s="0" t="n">
         <v>-308000000.0</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="F7" s="0" t="n">
         <v>107000000.0</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="G7" s="0" t="n">
         <v>118000000.0</v>
       </c>
-      <c r="G7" s="0" t="n">
+      <c r="H7" s="0" t="n">
         <v>181000000.0</v>
       </c>
-      <c r="H7" s="0" t="n">
+      <c r="I7" s="0" t="n">
         <v>319000000.0</v>
       </c>
-      <c r="I7" s="0" t="n">
+      <c r="J7" s="0" t="n">
         <v>224000000.0</v>
       </c>
-      <c r="J7" s="0" t="n">
+      <c r="K7" s="0" t="n">
         <v>286000000.0</v>
       </c>
-      <c r="K7" s="0" t="n">
+      <c r="L7" s="0" t="n">
         <v>253000000.0</v>
       </c>
-      <c r="L7" s="0" t="n">
+      <c r="M7" s="0" t="n">
         <v>349000000.0</v>
       </c>
-      <c r="M7" s="0" t="n">
+      <c r="N7" s="0" t="n">
         <v>242000000.0</v>
       </c>
-      <c r="N7" s="0" t="n">
+      <c r="O7" s="0" t="n">
         <v>86000000.0</v>
       </c>
-      <c r="O7" s="0" t="n">
+      <c r="P7" s="0" t="n">
         <v>58000000.0</v>
       </c>
-      <c r="P7" s="0" t="n">
+      <c r="Q7" s="0" t="n">
         <v>54000000.0</v>
       </c>
-      <c r="Q7" s="0" t="n">
+      <c r="R7" s="0" t="n">
         <v>-21000000.0</v>
       </c>
-      <c r="R7" s="0" t="n">
+      <c r="S7" s="0" t="n">
         <v>39000000.0</v>
       </c>
-      <c r="S7" s="0" t="n">
+      <c r="T7" s="0" t="n">
         <v>32000000.0</v>
       </c>
-      <c r="T7" s="0" t="n">
+      <c r="U7" s="0" t="n">
         <v>101000000.0</v>
       </c>
-      <c r="U7" s="0" t="n">
+      <c r="V7" s="0" t="n">
         <v>86200000.0</v>
       </c>
-      <c r="V7" s="0" t="n">
+      <c r="W7" s="0" t="n">
         <v>67100000.0</v>
       </c>
-      <c r="W7" s="0" t="n">
+      <c r="X7" s="0" t="n">
         <v>34000000.0</v>
       </c>
-      <c r="X7" s="0" t="n">
+      <c r="Y7" s="0" t="n">
         <v>147000000.0</v>
       </c>
-      <c r="Y7" s="0" t="n">
+      <c r="Z7" s="0" t="n">
         <v>22400000.0</v>
       </c>
-      <c r="Z7" s="0" t="n">
+      <c r="AA7" s="0" t="n">
         <v>27300000.0</v>
       </c>
-      <c r="AA7" s="0" t="n">
+      <c r="AB7" s="0" t="n">
         <v>72800000.0</v>
       </c>
-      <c r="AB7" s="0" t="n">
+      <c r="AC7" s="0" t="n">
         <v>34000000.0</v>
       </c>
-      <c r="AC7" s="0" t="n">
+      <c r="AD7" s="0" t="n">
         <v>121800000.0</v>
       </c>
-      <c r="AD7" s="0" t="n">
+      <c r="AE7" s="0" t="n">
         <v>155000000.0</v>
       </c>
-      <c r="AE7" s="0" t="n">
+      <c r="AF7" s="0" t="n">
         <v>43800000.0</v>
       </c>
-      <c r="AF7" s="0" t="n">
+      <c r="AG7" s="0" t="n">
         <v>-8700000.0</v>
       </c>
-      <c r="AG7" s="0" t="n">
+      <c r="AH7" s="0" t="n">
         <v>-8900000.0</v>
       </c>
-      <c r="AH7" s="0" t="n">
+      <c r="AI7" s="0" t="n">
         <v>-41600000.0</v>
       </c>
-      <c r="AI7" s="0" t="n">
+      <c r="AJ7" s="0" t="n">
         <v>-400000.0</v>
       </c>
-      <c r="AJ7" s="0" t="n">
+      <c r="AK7" s="0" t="n">
         <v>68300000.0</v>
       </c>
-      <c r="AK7" s="0" t="n">
+      <c r="AL7" s="0" t="n">
         <v>37300000.0</v>
       </c>
-      <c r="AL7" s="0" t="n">
+      <c r="AM7" s="0" t="n">
         <v>30700000.0</v>
       </c>
-      <c r="AM7" s="0" t="n">
+      <c r="AN7" s="0" t="n">
         <v>36200000.0</v>
       </c>
-      <c r="AN7" s="0" t="n">
+      <c r="AO7" s="0" t="n">
         <v>-17000000.0</v>
       </c>
     </row>
@@ -991,34 +1023,34 @@
           <t>Change in payables and accrued liability</t>
         </is>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C8" s="0" t="n">
         <v>4946000000.0</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="D8" s="0" t="n">
         <v>4725000000.0</v>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="E8" s="0" t="n">
         <v>3853000000.0</v>
       </c>
-      <c r="E8" s="0" t="n">
+      <c r="F8" s="0" t="n">
         <v>3133000000.0</v>
       </c>
-      <c r="F8" s="0" t="n">
+      <c r="G8" s="0" t="n">
         <v>1867000000.0</v>
       </c>
-      <c r="G8" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H8" s="0" t="n">
+      <c r="H8" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I8" s="0" t="n">
         <v>711200000.0</v>
       </c>
-      <c r="I8" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="J8" s="0" t="inlineStr">
         <is>
           <t/>
@@ -1029,14 +1061,14 @@
           <t/>
         </is>
       </c>
-      <c r="L8" s="0" t="n">
+      <c r="L8" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M8" s="0" t="n">
         <v>526100000.0</v>
       </c>
-      <c r="M8" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="N8" s="0" t="inlineStr">
         <is>
           <t/>
@@ -1062,14 +1094,14 @@
           <t/>
         </is>
       </c>
-      <c r="S8" s="0" t="n">
+      <c r="S8" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="T8" s="0" t="n">
         <v>9800000.0</v>
       </c>
-      <c r="T8" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="U8" s="0" t="inlineStr">
         <is>
           <t/>
@@ -1090,26 +1122,26 @@
           <t/>
         </is>
       </c>
-      <c r="Y8" s="0" t="n">
+      <c r="Y8" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z8" s="0" t="n">
         <v>68100000.0</v>
       </c>
-      <c r="Z8" s="0" t="n">
+      <c r="AA8" s="0" t="n">
         <v>66200000.0</v>
       </c>
-      <c r="AA8" s="0" t="n">
+      <c r="AB8" s="0" t="n">
         <v>118600000.0</v>
       </c>
-      <c r="AB8" s="0" t="n">
+      <c r="AC8" s="0" t="n">
         <v>301000000.0</v>
       </c>
-      <c r="AC8" s="0" t="n">
+      <c r="AD8" s="0" t="n">
         <v>276800000.0</v>
       </c>
-      <c r="AD8" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="AE8" s="0" t="inlineStr">
         <is>
           <t/>
@@ -1156,6 +1188,11 @@
         </is>
       </c>
       <c r="AN8" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO8" s="0" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -1342,16 +1379,21 @@
           <t/>
         </is>
       </c>
-      <c r="AK9" s="0" t="n">
+      <c r="AK9" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL9" s="0" t="n">
         <v>141100000.0</v>
       </c>
-      <c r="AL9" s="0" t="n">
+      <c r="AM9" s="0" t="n">
         <v>167800000.0</v>
       </c>
-      <c r="AM9" s="0" t="n">
+      <c r="AN9" s="0" t="n">
         <v>144600000.0</v>
       </c>
-      <c r="AN9" s="0" t="n">
+      <c r="AO9" s="0" t="n">
         <v>103100000.0</v>
       </c>
     </row>
@@ -1361,121 +1403,126 @@
           <t>Change in other assets and liabilities</t>
         </is>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C10" s="0" t="n">
         <v>-155000000.0</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="D10" s="0" t="n">
         <v>-55000000.0</v>
       </c>
-      <c r="D10" s="0" t="n">
+      <c r="E10" s="0" t="n">
         <v>-125000000.0</v>
       </c>
-      <c r="E10" s="0" t="n">
+      <c r="F10" s="0" t="n">
         <v>-279000000.0</v>
       </c>
-      <c r="F10" s="0" t="n">
+      <c r="G10" s="0" t="n">
         <v>-483000000.0</v>
       </c>
-      <c r="G10" s="0" t="n">
+      <c r="H10" s="0" t="n">
         <v>-124000000.0</v>
       </c>
-      <c r="H10" s="0" t="n">
+      <c r="I10" s="0" t="n">
         <v>-62000000.0</v>
       </c>
-      <c r="I10" s="0" t="n">
+      <c r="J10" s="0" t="n">
         <v>-436000000.0</v>
       </c>
-      <c r="J10" s="0" t="n">
+      <c r="K10" s="0" t="n">
         <v>-358000000.0</v>
       </c>
-      <c r="K10" s="0" t="n">
+      <c r="L10" s="0" t="n">
         <v>11000000.0</v>
       </c>
-      <c r="L10" s="0" t="n">
+      <c r="M10" s="0" t="n">
         <v>1000000.0</v>
       </c>
-      <c r="M10" s="0" t="n">
+      <c r="N10" s="0" t="n">
         <v>615000000.0</v>
       </c>
-      <c r="N10" s="0" t="n">
+      <c r="O10" s="0" t="n">
         <v>725000000.0</v>
       </c>
-      <c r="O10" s="0" t="n">
+      <c r="P10" s="0" t="n">
         <v>162000000.0</v>
       </c>
-      <c r="P10" s="0" t="n">
+      <c r="Q10" s="0" t="n">
         <v>134000000.0</v>
       </c>
-      <c r="Q10" s="0" t="n">
+      <c r="R10" s="0" t="n">
         <v>299000000.0</v>
       </c>
-      <c r="R10" s="0" t="n">
+      <c r="S10" s="0" t="n">
         <v>176000000.0</v>
       </c>
-      <c r="S10" s="0" t="n">
+      <c r="T10" s="0" t="n">
         <v>208000000.0</v>
       </c>
-      <c r="T10" s="0" t="n">
+      <c r="U10" s="0" t="n">
         <v>214000000.0</v>
       </c>
-      <c r="U10" s="0" t="n">
+      <c r="V10" s="0" t="n">
         <v>217400000.0</v>
       </c>
-      <c r="V10" s="0" t="n">
+      <c r="W10" s="0" t="n">
         <v>262100000.0</v>
       </c>
-      <c r="W10" s="0" t="n">
+      <c r="X10" s="0" t="n">
         <v>172100000.0</v>
       </c>
-      <c r="X10" s="0" t="n">
+      <c r="Y10" s="0" t="n">
         <v>125000000.0</v>
       </c>
-      <c r="Y10" s="0" t="n">
+      <c r="Z10" s="0" t="n">
         <v>5500000.0</v>
       </c>
-      <c r="Z10" s="0" t="n">
+      <c r="AA10" s="0" t="n">
         <v>2500000.0</v>
       </c>
-      <c r="AA10" s="0" t="n">
+      <c r="AB10" s="0" t="n">
         <v>-145500000.0</v>
       </c>
-      <c r="AB10" s="0" t="n">
+      <c r="AC10" s="0" t="n">
         <v>-45200000.0</v>
       </c>
-      <c r="AC10" s="0" t="n">
+      <c r="AD10" s="0" t="n">
         <v>6800000.0</v>
       </c>
-      <c r="AD10" s="0" t="n">
+      <c r="AE10" s="0" t="n">
         <v>-289900000.0</v>
       </c>
-      <c r="AE10" s="0" t="n">
+      <c r="AF10" s="0" t="n">
         <v>-3700000.0</v>
       </c>
-      <c r="AF10" s="0" t="n">
+      <c r="AG10" s="0" t="n">
         <v>47900000.0</v>
       </c>
-      <c r="AG10" s="0" t="n">
+      <c r="AH10" s="0" t="n">
         <v>102300000.0</v>
       </c>
-      <c r="AH10" s="0" t="n">
+      <c r="AI10" s="0" t="n">
         <v>372100000.0</v>
       </c>
-      <c r="AI10" s="0" t="n">
+      <c r="AJ10" s="0" t="n">
         <v>217600000.0</v>
       </c>
-      <c r="AJ10" s="0" t="n">
+      <c r="AK10" s="0" t="n">
         <v>93700000.0</v>
       </c>
-      <c r="AK10" s="0" t="n">
+      <c r="AL10" s="0" t="n">
         <v>-64300000.0</v>
       </c>
-      <c r="AL10" s="0" t="n">
+      <c r="AM10" s="0" t="n">
         <v>12900000.0</v>
       </c>
-      <c r="AM10" s="0" t="n">
+      <c r="AN10" s="0" t="n">
         <v>38100000.0</v>
       </c>
-      <c r="AN10" s="0" t="n">
+      <c r="AO10" s="0" t="n">
         <v>100100000.0</v>
       </c>
     </row>
@@ -1485,121 +1532,126 @@
           <t>Operating Cash Flow</t>
         </is>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C11" s="0" t="n">
         <v>3003000000.0</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="D11" s="0" t="n">
         <v>2808000000.0</v>
       </c>
-      <c r="D11" s="0" t="n">
+      <c r="E11" s="0" t="n">
         <v>2280000000.0</v>
       </c>
-      <c r="E11" s="0" t="n">
+      <c r="F11" s="0" t="n">
         <v>2706000000.0</v>
       </c>
-      <c r="F11" s="0" t="n">
+      <c r="G11" s="0" t="n">
         <v>2499000000.0</v>
       </c>
-      <c r="G11" s="0" t="n">
+      <c r="H11" s="0" t="n">
         <v>2466000000.0</v>
       </c>
-      <c r="H11" s="0" t="n">
+      <c r="I11" s="0" t="n">
         <v>2517000000.0</v>
       </c>
-      <c r="I11" s="0" t="n">
+      <c r="J11" s="0" t="n">
         <v>2398000000.0</v>
       </c>
-      <c r="J11" s="0" t="n">
+      <c r="K11" s="0" t="n">
         <v>2396000000.0</v>
       </c>
-      <c r="K11" s="0" t="n">
+      <c r="L11" s="0" t="n">
         <v>2361000000.0</v>
       </c>
-      <c r="L11" s="0" t="n">
+      <c r="M11" s="0" t="n">
         <v>2562000000.0</v>
       </c>
-      <c r="M11" s="0" t="n">
+      <c r="N11" s="0" t="n">
         <v>2458000000.0</v>
       </c>
-      <c r="N11" s="0" t="n">
+      <c r="O11" s="0" t="n">
         <v>2405000000.0</v>
       </c>
-      <c r="O11" s="0" t="n">
+      <c r="P11" s="0" t="n">
         <v>2022000000.0</v>
       </c>
-      <c r="P11" s="0" t="n">
+      <c r="Q11" s="0" t="n">
         <v>1790000000.0</v>
       </c>
-      <c r="Q11" s="0" t="n">
+      <c r="R11" s="0" t="n">
         <v>1725000000.0</v>
       </c>
-      <c r="R11" s="0" t="n">
+      <c r="S11" s="0" t="n">
         <v>1651000000.0</v>
       </c>
-      <c r="S11" s="0" t="n">
+      <c r="T11" s="0" t="n">
         <v>1631000000.0</v>
       </c>
-      <c r="T11" s="0" t="n">
+      <c r="U11" s="0" t="n">
         <v>1789000000.0</v>
       </c>
-      <c r="U11" s="0" t="n">
+      <c r="V11" s="0" t="n">
         <v>1874000000.0</v>
       </c>
-      <c r="V11" s="0" t="n">
+      <c r="W11" s="0" t="n">
         <v>1911300000.0</v>
       </c>
-      <c r="W11" s="0" t="n">
+      <c r="X11" s="0" t="n">
         <v>1823300000.0</v>
       </c>
-      <c r="X11" s="0" t="n">
+      <c r="Y11" s="0" t="n">
         <v>1943000000.0</v>
       </c>
-      <c r="Y11" s="0" t="n">
+      <c r="Z11" s="0" t="n">
         <v>1750800000.0</v>
       </c>
-      <c r="Z11" s="0" t="n">
+      <c r="AA11" s="0" t="n">
         <v>1746500000.0</v>
       </c>
-      <c r="AA11" s="0" t="n">
+      <c r="AB11" s="0" t="n">
         <v>1633000000.0</v>
       </c>
-      <c r="AB11" s="0" t="n">
+      <c r="AC11" s="0" t="n">
         <v>1535200000.0</v>
       </c>
-      <c r="AC11" s="0" t="n">
+      <c r="AD11" s="0" t="n">
         <v>1461500000.0</v>
       </c>
-      <c r="AD11" s="0" t="n">
+      <c r="AE11" s="0" t="n">
         <v>1353600000.0</v>
       </c>
-      <c r="AE11" s="0" t="n">
+      <c r="AF11" s="0" t="n">
         <v>1381400000.0</v>
       </c>
-      <c r="AF11" s="0" t="n">
+      <c r="AG11" s="0" t="n">
         <v>1226300000.0</v>
       </c>
-      <c r="AG11" s="0" t="n">
+      <c r="AH11" s="0" t="n">
         <v>1191200000.0</v>
       </c>
-      <c r="AH11" s="0" t="n">
+      <c r="AI11" s="0" t="n">
         <v>1171600000.0</v>
       </c>
-      <c r="AI11" s="0" t="n">
+      <c r="AJ11" s="0" t="n">
         <v>1037700000.0</v>
       </c>
-      <c r="AJ11" s="0" t="n">
+      <c r="AK11" s="0" t="n">
         <v>1126700000.0</v>
       </c>
-      <c r="AK11" s="0" t="n">
+      <c r="AL11" s="0" t="n">
         <v>1169100000.0</v>
       </c>
-      <c r="AL11" s="0" t="n">
+      <c r="AM11" s="0" t="n">
         <v>1129200000.0</v>
       </c>
-      <c r="AM11" s="0" t="n">
+      <c r="AN11" s="0" t="n">
         <v>1029900000.0</v>
       </c>
-      <c r="AN11" s="0" t="n">
+      <c r="AO11" s="0" t="n">
         <v>1027000000.0</v>
       </c>
     </row>
@@ -1609,121 +1661,126 @@
           <t>Capital expenditures</t>
         </is>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C12" s="0" t="n">
         <v>-582000000.0</v>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="D12" s="0" t="n">
         <v>-614000000.0</v>
       </c>
-      <c r="D12" s="0" t="n">
+      <c r="E12" s="0" t="n">
         <v>-623000000.0</v>
       </c>
-      <c r="E12" s="0" t="n">
+      <c r="F12" s="0" t="n">
         <v>-769000000.0</v>
       </c>
-      <c r="F12" s="0" t="n">
+      <c r="G12" s="0" t="n">
         <v>-741000000.0</v>
       </c>
-      <c r="G12" s="0" t="n">
+      <c r="H12" s="0" t="n">
         <v>-912000000.0</v>
       </c>
-      <c r="H12" s="0" t="n">
+      <c r="I12" s="0" t="n">
         <v>-742000000.0</v>
       </c>
-      <c r="I12" s="0" t="n">
+      <c r="J12" s="0" t="n">
         <v>-702000000.0</v>
       </c>
-      <c r="J12" s="0" t="n">
+      <c r="K12" s="0" t="n">
         <v>-658000000.0</v>
       </c>
-      <c r="K12" s="0" t="n">
+      <c r="L12" s="0" t="n">
         <v>-468000000.0</v>
       </c>
-      <c r="L12" s="0" t="n">
+      <c r="M12" s="0" t="n">
         <v>-629000000.0</v>
       </c>
-      <c r="M12" s="0" t="n">
+      <c r="N12" s="0" t="n">
         <v>-556000000.0</v>
       </c>
-      <c r="N12" s="0" t="n">
+      <c r="O12" s="0" t="n">
         <v>-559000000.0</v>
       </c>
-      <c r="O12" s="0" t="n">
+      <c r="P12" s="0" t="n">
         <v>-535000000.0</v>
       </c>
-      <c r="P12" s="0" t="n">
+      <c r="Q12" s="0" t="n">
         <v>-492000000.0</v>
       </c>
-      <c r="Q12" s="0" t="n">
+      <c r="R12" s="0" t="n">
         <v>-495000000.0</v>
       </c>
-      <c r="R12" s="0" t="n">
+      <c r="S12" s="0" t="n">
         <v>-498000000.0</v>
       </c>
-      <c r="S12" s="0" t="n">
+      <c r="T12" s="0" t="n">
         <v>-508000000.0</v>
       </c>
-      <c r="T12" s="0" t="n">
+      <c r="U12" s="0" t="n">
         <v>-525000000.0</v>
       </c>
-      <c r="U12" s="0" t="n">
+      <c r="V12" s="0" t="n">
         <v>-527200000.0</v>
       </c>
-      <c r="V12" s="0" t="n">
+      <c r="W12" s="0" t="n">
         <v>-508600000.0</v>
       </c>
-      <c r="W12" s="0" t="n">
+      <c r="X12" s="0" t="n">
         <v>-484300000.0</v>
       </c>
-      <c r="X12" s="0" t="n">
+      <c r="Y12" s="0" t="n">
         <v>-473000000.0</v>
       </c>
-      <c r="Y12" s="0" t="n">
+      <c r="Z12" s="0" t="n">
         <v>-447200000.0</v>
       </c>
-      <c r="Z12" s="0" t="n">
+      <c r="AA12" s="0" t="n">
         <v>-480700000.0</v>
       </c>
-      <c r="AA12" s="0" t="n">
+      <c r="AB12" s="0" t="n">
         <v>-503200000.0</v>
       </c>
-      <c r="AB12" s="0" t="n">
+      <c r="AC12" s="0" t="n">
         <v>-510200000.0</v>
       </c>
-      <c r="AC12" s="0" t="n">
+      <c r="AD12" s="0" t="n">
         <v>-498300000.0</v>
       </c>
-      <c r="AD12" s="0" t="n">
+      <c r="AE12" s="0" t="n">
         <v>-472500000.0</v>
       </c>
-      <c r="AE12" s="0" t="n">
+      <c r="AF12" s="0" t="n">
         <v>-451200000.0</v>
       </c>
-      <c r="AF12" s="0" t="n">
+      <c r="AG12" s="0" t="n">
         <v>-461000000.0</v>
       </c>
-      <c r="AG12" s="0" t="n">
+      <c r="AH12" s="0" t="n">
         <v>-454300000.0</v>
       </c>
-      <c r="AH12" s="0" t="n">
+      <c r="AI12" s="0" t="n">
         <v>-444600000.0</v>
       </c>
-      <c r="AI12" s="0" t="n">
+      <c r="AJ12" s="0" t="n">
         <v>-435400000.0</v>
       </c>
-      <c r="AJ12" s="0" t="n">
+      <c r="AK12" s="0" t="n">
         <v>-420700000.0</v>
       </c>
-      <c r="AK12" s="0" t="n">
+      <c r="AL12" s="0" t="n">
         <v>-399000000.0</v>
       </c>
-      <c r="AL12" s="0" t="n">
+      <c r="AM12" s="0" t="n">
         <v>-387700000.0</v>
       </c>
-      <c r="AM12" s="0" t="n">
+      <c r="AN12" s="0" t="n">
         <v>-374100000.0</v>
       </c>
-      <c r="AN12" s="0" t="n">
+      <c r="AO12" s="0" t="n">
         <v>-351000000.0</v>
       </c>
     </row>
@@ -1733,26 +1790,26 @@
           <t>Net Aquisitions</t>
         </is>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C13" s="0" t="n">
         <v>-15000000.0</v>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="D13" s="0" t="n">
         <v>-1053000000.0</v>
-      </c>
-      <c r="D13" s="0" t="n">
-        <v>-1028000000.0</v>
       </c>
       <c r="E13" s="0" t="n">
         <v>-1028000000.0</v>
       </c>
       <c r="F13" s="0" t="n">
+        <v>-1028000000.0</v>
+      </c>
+      <c r="G13" s="0" t="n">
         <v>-2701000000.0</v>
       </c>
-      <c r="G13" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="H13" s="0" t="inlineStr">
         <is>
           <t/>
@@ -1793,44 +1850,46 @@
           <t/>
         </is>
       </c>
-      <c r="P13" s="0" t="n">
+      <c r="P13" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q13" s="0" t="n">
         <v>-1671000000.0</v>
       </c>
-      <c r="Q13" s="0" t="n">
+      <c r="R13" s="0" t="n">
         <v>-1690000000.0</v>
       </c>
-      <c r="R13" s="0" t="n">
+      <c r="S13" s="0" t="n">
         <v>-1772000000.0</v>
       </c>
-      <c r="S13" s="0" t="n">
+      <c r="T13" s="0" t="n">
         <v>-92000000.0</v>
       </c>
-      <c r="T13" s="0" t="n">
+      <c r="U13" s="0" t="n">
         <v>-101000000.0</v>
       </c>
-      <c r="U13" s="0" t="n">
+      <c r="V13" s="0" t="n">
         <v>-281300000.0</v>
       </c>
-      <c r="V13" s="0" t="n">
+      <c r="W13" s="0" t="n">
         <v>-155800000.0</v>
       </c>
-      <c r="W13" s="0" t="n">
+      <c r="X13" s="0" t="n">
         <v>-250000000.0</v>
       </c>
-      <c r="X13" s="0" t="n">
+      <c r="Y13" s="0" t="n">
         <v>-241000000.0</v>
       </c>
-      <c r="Y13" s="0" t="n">
+      <c r="Z13" s="0" t="n">
         <v>-60700000.0</v>
       </c>
-      <c r="Z13" s="0" t="n">
+      <c r="AA13" s="0" t="n">
         <v>-104200000.0</v>
       </c>
-      <c r="AA13" s="0" t="n">
+      <c r="AB13" s="0" t="n">
         <v>-10000000.0</v>
-      </c>
-      <c r="AB13" s="0" t="n">
-        <v>-9200000.0</v>
       </c>
       <c r="AC13" s="0" t="n">
         <v>-9200000.0</v>
@@ -1842,30 +1901,33 @@
         <v>-9200000.0</v>
       </c>
       <c r="AF13" s="0" t="n">
-        <v>-8700000.0</v>
+        <v>-9200000.0</v>
       </c>
       <c r="AG13" s="0" t="n">
         <v>-8700000.0</v>
       </c>
       <c r="AH13" s="0" t="n">
-        <v>-8600000.0</v>
+        <v>-8700000.0</v>
       </c>
       <c r="AI13" s="0" t="n">
         <v>-8600000.0</v>
       </c>
       <c r="AJ13" s="0" t="n">
-        <v>-7600000.0</v>
+        <v>-8600000.0</v>
       </c>
       <c r="AK13" s="0" t="n">
         <v>-7600000.0</v>
       </c>
       <c r="AL13" s="0" t="n">
+        <v>-7600000.0</v>
+      </c>
+      <c r="AM13" s="0" t="n">
         <v>-7700000.0</v>
       </c>
-      <c r="AM13" s="0" t="n">
+      <c r="AN13" s="0" t="n">
         <v>-5300000.0</v>
       </c>
-      <c r="AN13" s="0" t="n">
+      <c r="AO13" s="0" t="n">
         <v>-256100000.0</v>
       </c>
     </row>
@@ -1875,112 +1937,112 @@
           <t>Long-Term Investments Change (Net)</t>
         </is>
       </c>
-      <c r="B14" s="0" t="n">
+      <c r="B14" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C14" s="0" t="n">
         <v>-182000000.0</v>
       </c>
-      <c r="C14" s="0" t="n">
+      <c r="D14" s="0" t="n">
         <v>-177000000.0</v>
       </c>
-      <c r="D14" s="0" t="n">
+      <c r="E14" s="0" t="n">
         <v>-28000000.0</v>
       </c>
-      <c r="E14" s="0" t="n">
+      <c r="F14" s="0" t="n">
         <v>-42000000.0</v>
       </c>
-      <c r="F14" s="0" t="n">
+      <c r="G14" s="0" t="n">
         <v>939000000.0</v>
       </c>
-      <c r="G14" s="0" t="n">
+      <c r="H14" s="0" t="n">
         <v>1226000000.0</v>
       </c>
-      <c r="H14" s="0" t="n">
+      <c r="I14" s="0" t="n">
         <v>1215000000.0</v>
       </c>
-      <c r="I14" s="0" t="n">
+      <c r="J14" s="0" t="n">
         <v>1262000000.0</v>
       </c>
-      <c r="J14" s="0" t="n">
+      <c r="K14" s="0" t="n">
         <v>398000000.0</v>
       </c>
-      <c r="K14" s="0" t="n">
+      <c r="L14" s="0" t="n">
         <v>94000000.0</v>
       </c>
-      <c r="L14" s="0" t="n">
+      <c r="M14" s="0" t="n">
         <v>271000000.0</v>
       </c>
-      <c r="M14" s="0" t="n">
+      <c r="N14" s="0" t="n">
         <v>295000000.0</v>
       </c>
-      <c r="N14" s="0" t="n">
+      <c r="O14" s="0" t="n">
         <v>-70000000.0</v>
       </c>
-      <c r="O14" s="0" t="n">
+      <c r="P14" s="0" t="n">
         <v>105000000.0</v>
       </c>
-      <c r="P14" s="0" t="n">
+      <c r="Q14" s="0" t="n">
         <v>-41000000.0</v>
       </c>
-      <c r="Q14" s="0" t="n">
+      <c r="R14" s="0" t="n">
         <v>-93000000.0</v>
       </c>
-      <c r="R14" s="0" t="n">
+      <c r="S14" s="0" t="n">
         <v>-82000000.0</v>
       </c>
-      <c r="S14" s="0" t="n">
+      <c r="T14" s="0" t="n">
         <v>-171000000.0</v>
       </c>
-      <c r="T14" s="0" t="n">
+      <c r="U14" s="0" t="n">
         <v>-643000000.0</v>
       </c>
-      <c r="U14" s="0" t="n">
+      <c r="V14" s="0" t="n">
         <v>-872300000.0</v>
       </c>
-      <c r="V14" s="0" t="n">
+      <c r="W14" s="0" t="n">
         <v>-804700000.0</v>
       </c>
-      <c r="W14" s="0" t="n">
+      <c r="X14" s="0" t="n">
         <v>-1365400000.0</v>
       </c>
-      <c r="X14" s="0" t="n">
+      <c r="Y14" s="0" t="n">
         <v>-902000000.0</v>
       </c>
-      <c r="Y14" s="0" t="n">
+      <c r="Z14" s="0" t="n">
         <v>-691700000.0</v>
       </c>
-      <c r="Z14" s="0" t="n">
+      <c r="AA14" s="0" t="n">
         <v>-490900000.0</v>
       </c>
-      <c r="AA14" s="0" t="n">
+      <c r="AB14" s="0" t="n">
         <v>16200000.0</v>
       </c>
-      <c r="AB14" s="0" t="n">
+      <c r="AC14" s="0" t="n">
         <v>8600000.0</v>
       </c>
-      <c r="AC14" s="0" t="n">
+      <c r="AD14" s="0" t="n">
         <v>14100000.0</v>
       </c>
-      <c r="AD14" s="0" t="n">
+      <c r="AE14" s="0" t="n">
         <v>3600000.0</v>
       </c>
-      <c r="AE14" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AF14" s="0" t="n">
+      <c r="AF14" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG14" s="0" t="n">
         <v>4200000.0</v>
       </c>
-      <c r="AG14" s="0" t="n">
+      <c r="AH14" s="0" t="n">
         <v>3600000.0</v>
       </c>
-      <c r="AH14" s="0" t="n">
+      <c r="AI14" s="0" t="n">
         <v>-1900000.0</v>
       </c>
-      <c r="AI14" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="AJ14" s="0" t="inlineStr">
         <is>
           <t/>
@@ -2002,6 +2064,11 @@
         </is>
       </c>
       <c r="AN14" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO14" s="0" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -2013,14 +2080,14 @@
           <t>Other investing activities</t>
         </is>
       </c>
-      <c r="B15" s="0" t="n">
+      <c r="B15" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C15" s="0" t="n">
         <v>-150000000.0</v>
       </c>
-      <c r="C15" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="D15" s="0" t="inlineStr">
         <is>
           <t/>
@@ -2202,6 +2269,11 @@
         </is>
       </c>
       <c r="AN15" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO15" s="0" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -2213,121 +2285,126 @@
           <t>Investing cash flow</t>
         </is>
       </c>
-      <c r="B16" s="0" t="n">
+      <c r="B16" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C16" s="0" t="n">
         <v>-747000000.0</v>
       </c>
-      <c r="C16" s="0" t="n">
+      <c r="D16" s="0" t="n">
         <v>-1812000000.0</v>
       </c>
-      <c r="D16" s="0" t="n">
+      <c r="E16" s="0" t="n">
         <v>-1698000000.0</v>
       </c>
-      <c r="E16" s="0" t="n">
+      <c r="F16" s="0" t="n">
         <v>-1858000000.0</v>
       </c>
-      <c r="F16" s="0" t="n">
+      <c r="G16" s="0" t="n">
         <v>-842000000.0</v>
       </c>
-      <c r="G16" s="0" t="n">
+      <c r="H16" s="0" t="n">
         <v>314000000.0</v>
       </c>
-      <c r="H16" s="0" t="n">
+      <c r="I16" s="0" t="n">
         <v>473000000.0</v>
       </c>
-      <c r="I16" s="0" t="n">
+      <c r="J16" s="0" t="n">
         <v>560000000.0</v>
       </c>
-      <c r="J16" s="0" t="n">
+      <c r="K16" s="0" t="n">
         <v>-260000000.0</v>
       </c>
-      <c r="K16" s="0" t="n">
+      <c r="L16" s="0" t="n">
         <v>-374000000.0</v>
       </c>
-      <c r="L16" s="0" t="n">
+      <c r="M16" s="0" t="n">
         <v>-358000000.0</v>
       </c>
-      <c r="M16" s="0" t="n">
+      <c r="N16" s="0" t="n">
         <v>-242000000.0</v>
       </c>
-      <c r="N16" s="0" t="n">
+      <c r="O16" s="0" t="n">
         <v>-610000000.0</v>
       </c>
-      <c r="O16" s="0" t="n">
+      <c r="P16" s="0" t="n">
         <v>-2091000000.0</v>
       </c>
-      <c r="P16" s="0" t="n">
+      <c r="Q16" s="0" t="n">
         <v>-2204000000.0</v>
       </c>
-      <c r="Q16" s="0" t="n">
+      <c r="R16" s="0" t="n">
         <v>-2278000000.0</v>
       </c>
-      <c r="R16" s="0" t="n">
+      <c r="S16" s="0" t="n">
         <v>-2352000000.0</v>
       </c>
-      <c r="S16" s="0" t="n">
+      <c r="T16" s="0" t="n">
         <v>-771000000.0</v>
       </c>
-      <c r="T16" s="0" t="n">
+      <c r="U16" s="0" t="n">
         <v>-1269000000.0</v>
       </c>
-      <c r="U16" s="0" t="n">
+      <c r="V16" s="0" t="n">
         <v>-1680800000.0</v>
       </c>
-      <c r="V16" s="0" t="n">
+      <c r="W16" s="0" t="n">
         <v>-1469100000.0</v>
       </c>
-      <c r="W16" s="0" t="n">
+      <c r="X16" s="0" t="n">
         <v>-2099700000.0</v>
       </c>
-      <c r="X16" s="0" t="n">
+      <c r="Y16" s="0" t="n">
         <v>-1616000000.0</v>
       </c>
-      <c r="Y16" s="0" t="n">
+      <c r="Z16" s="0" t="n">
         <v>-1199600000.0</v>
       </c>
-      <c r="Z16" s="0" t="n">
+      <c r="AA16" s="0" t="n">
         <v>-1075800000.0</v>
       </c>
-      <c r="AA16" s="0" t="n">
+      <c r="AB16" s="0" t="n">
         <v>-497000000.0</v>
       </c>
-      <c r="AB16" s="0" t="n">
+      <c r="AC16" s="0" t="n">
         <v>-511600000.0</v>
       </c>
-      <c r="AC16" s="0" t="n">
+      <c r="AD16" s="0" t="n">
         <v>-498900000.0</v>
       </c>
-      <c r="AD16" s="0" t="n">
+      <c r="AE16" s="0" t="n">
         <v>-476000000.0</v>
       </c>
-      <c r="AE16" s="0" t="n">
+      <c r="AF16" s="0" t="n">
         <v>-456200000.0</v>
       </c>
-      <c r="AF16" s="0" t="n">
+      <c r="AG16" s="0" t="n">
         <v>-465500000.0</v>
       </c>
-      <c r="AG16" s="0" t="n">
+      <c r="AH16" s="0" t="n">
         <v>-459600000.0</v>
       </c>
-      <c r="AH16" s="0" t="n">
+      <c r="AI16" s="0" t="n">
         <v>-455300000.0</v>
       </c>
-      <c r="AI16" s="0" t="n">
+      <c r="AJ16" s="0" t="n">
         <v>-444000000.0</v>
       </c>
-      <c r="AJ16" s="0" t="n">
+      <c r="AK16" s="0" t="n">
         <v>-428300000.0</v>
       </c>
-      <c r="AK16" s="0" t="n">
+      <c r="AL16" s="0" t="n">
         <v>-406600000.0</v>
       </c>
-      <c r="AL16" s="0" t="n">
+      <c r="AM16" s="0" t="n">
         <v>-395200000.0</v>
       </c>
-      <c r="AM16" s="0" t="n">
+      <c r="AN16" s="0" t="n">
         <v>-379200000.0</v>
       </c>
-      <c r="AN16" s="0" t="n">
+      <c r="AO16" s="0" t="n">
         <v>-606900000.0</v>
       </c>
     </row>
@@ -2337,123 +2414,128 @@
           <t>Repayment/Issuance of Debt (Net)</t>
         </is>
       </c>
-      <c r="B17" s="0" t="n">
+      <c r="B17" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C17" s="0" t="n">
         <v>185000000.0</v>
       </c>
-      <c r="C17" s="0" t="n">
+      <c r="D17" s="0" t="n">
         <v>1956000000.0</v>
       </c>
-      <c r="D17" s="0" t="n">
+      <c r="E17" s="0" t="n">
         <v>2701000000.0</v>
       </c>
-      <c r="E17" s="0" t="n">
+      <c r="F17" s="0" t="n">
         <v>2769000000.0</v>
       </c>
-      <c r="F17" s="0" t="n">
+      <c r="G17" s="0" t="n">
         <v>1600000000.0</v>
       </c>
-      <c r="G17" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H17" s="0" t="n">
+      <c r="H17" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I17" s="0" t="n">
         <v>-172000000.0</v>
       </c>
-      <c r="I17" s="0" t="n">
+      <c r="J17" s="0" t="n">
         <v>-283000000.0</v>
       </c>
-      <c r="J17" s="0" t="n">
+      <c r="K17" s="0" t="n">
         <v>-400000000.0</v>
       </c>
-      <c r="K17" s="0" t="n">
+      <c r="L17" s="0" t="n">
         <v>-375000000.0</v>
       </c>
-      <c r="L17" s="0" t="n">
+      <c r="M17" s="0" t="n">
         <v>-10000000.0</v>
       </c>
-      <c r="M17" s="0" t="n">
+      <c r="N17" s="0" t="n">
         <v>-226000000.0</v>
       </c>
-      <c r="N17" s="0" t="n">
+      <c r="O17" s="0" t="n">
         <v>-236000000.0</v>
       </c>
-      <c r="O17" s="0" t="n">
+      <c r="P17" s="0" t="n">
         <v>1458000000.0</v>
       </c>
-      <c r="P17" s="0" t="n">
+      <c r="Q17" s="0" t="n">
         <v>1357000000.0</v>
       </c>
-      <c r="Q17" s="0" t="n">
+      <c r="R17" s="0" t="n">
         <v>2016000000.0</v>
       </c>
-      <c r="R17" s="0" t="n">
+      <c r="S17" s="0" t="n">
         <v>2079000000.0</v>
       </c>
-      <c r="S17" s="0" t="n">
+      <c r="T17" s="0" t="n">
         <v>445000000.0</v>
       </c>
-      <c r="T17" s="0" t="n">
+      <c r="U17" s="0" t="n">
         <v>608000000.0</v>
       </c>
-      <c r="U17" s="0" t="n">
+      <c r="V17" s="0" t="n">
         <v>466300000.0</v>
       </c>
-      <c r="V17" s="0" t="n">
+      <c r="W17" s="0" t="n">
         <v>596400000.0</v>
       </c>
-      <c r="W17" s="0" t="n">
+      <c r="X17" s="0" t="n">
         <v>729500000.0</v>
       </c>
-      <c r="X17" s="0" t="n">
+      <c r="Y17" s="0" t="n">
         <v>299000000.0</v>
       </c>
-      <c r="Y17" s="0" t="n">
+      <c r="Z17" s="0" t="n">
         <v>109800000.0</v>
       </c>
-      <c r="Z17" s="0" t="n">
+      <c r="AA17" s="0" t="n">
         <v>42200000.0</v>
       </c>
-      <c r="AA17" s="0" t="n">
+      <c r="AB17" s="0" t="n">
         <v>-9700000.0</v>
       </c>
-      <c r="AB17" s="0" t="n">
+      <c r="AC17" s="0" t="n">
         <v>-6700000.0</v>
       </c>
-      <c r="AC17" s="0" t="n">
+      <c r="AD17" s="0" t="n">
         <v>-6900000.0</v>
       </c>
-      <c r="AD17" s="0" t="n">
+      <c r="AE17" s="0" t="n">
         <v>-11700000.0</v>
       </c>
-      <c r="AE17" s="0" t="n">
+      <c r="AF17" s="0" t="n">
         <v>-12200000.0</v>
       </c>
-      <c r="AF17" s="0" t="n">
+      <c r="AG17" s="0" t="n">
         <v>58700000.0</v>
       </c>
-      <c r="AG17" s="0" t="n">
+      <c r="AH17" s="0" t="n">
         <v>136100000.0</v>
       </c>
-      <c r="AH17" s="0" t="n">
+      <c r="AI17" s="0" t="n">
         <v>137500000.0</v>
       </c>
-      <c r="AI17" s="0" t="n">
+      <c r="AJ17" s="0" t="n">
         <v>137200000.0</v>
       </c>
-      <c r="AJ17" s="0" t="n">
+      <c r="AK17" s="0" t="n">
         <v>68600000.0</v>
       </c>
-      <c r="AK17" s="0" t="n">
+      <c r="AL17" s="0" t="n">
         <v>-13400000.0</v>
       </c>
-      <c r="AL17" s="0" t="n">
+      <c r="AM17" s="0" t="n">
         <v>-12500000.0</v>
       </c>
-      <c r="AM17" s="0" t="n">
+      <c r="AN17" s="0" t="n">
         <v>-14900000.0</v>
       </c>
-      <c r="AN17" s="0" t="n">
+      <c r="AO17" s="0" t="n">
         <v>-16100000.0</v>
       </c>
     </row>
@@ -2463,121 +2545,126 @@
           <t>Equity Repurchase (Common, Net)</t>
         </is>
       </c>
-      <c r="B18" s="0" t="n">
+      <c r="B18" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C18" s="0" t="n">
         <v>-182000000.0</v>
       </c>
-      <c r="C18" s="0" t="n">
+      <c r="D18" s="0" t="n">
         <v>-605000000.0</v>
       </c>
-      <c r="D18" s="0" t="n">
+      <c r="E18" s="0" t="n">
         <v>-893000000.0</v>
       </c>
-      <c r="E18" s="0" t="n">
+      <c r="F18" s="0" t="n">
         <v>-1094000000.0</v>
       </c>
-      <c r="F18" s="0" t="n">
+      <c r="G18" s="0" t="n">
         <v>-1242000000.0</v>
       </c>
-      <c r="G18" s="0" t="n">
+      <c r="H18" s="0" t="n">
         <v>-1338000000.0</v>
       </c>
-      <c r="H18" s="0" t="n">
+      <c r="I18" s="0" t="n">
         <v>-1555000000.0</v>
       </c>
-      <c r="I18" s="0" t="n">
+      <c r="J18" s="0" t="n">
         <v>-1427000000.0</v>
       </c>
-      <c r="J18" s="0" t="n">
+      <c r="K18" s="0" t="n">
         <v>-1487000000.0</v>
       </c>
-      <c r="K18" s="0" t="n">
+      <c r="L18" s="0" t="n">
         <v>-1178000000.0</v>
       </c>
-      <c r="L18" s="0" t="n">
+      <c r="M18" s="0" t="n">
         <v>-759000000.0</v>
       </c>
-      <c r="M18" s="0" t="n">
+      <c r="N18" s="0" t="n">
         <v>-726000000.0</v>
       </c>
-      <c r="N18" s="0" t="n">
+      <c r="O18" s="0" t="n">
         <v>-448000000.0</v>
       </c>
-      <c r="O18" s="0" t="n">
+      <c r="P18" s="0" t="n">
         <v>-302000000.0</v>
       </c>
-      <c r="P18" s="0" t="n">
+      <c r="Q18" s="0" t="n">
         <v>-413000000.0</v>
       </c>
-      <c r="Q18" s="0" t="n">
+      <c r="R18" s="0" t="n">
         <v>-550000000.0</v>
       </c>
-      <c r="R18" s="0" t="n">
+      <c r="S18" s="0" t="n">
         <v>-625000000.0</v>
       </c>
-      <c r="S18" s="0" t="n">
+      <c r="T18" s="0" t="n">
         <v>-725000000.0</v>
       </c>
-      <c r="T18" s="0" t="n">
+      <c r="U18" s="0" t="n">
         <v>-890000000.0</v>
       </c>
-      <c r="U18" s="0" t="n">
+      <c r="V18" s="0" t="n">
         <v>-1059900000.0</v>
       </c>
-      <c r="V18" s="0" t="n">
+      <c r="W18" s="0" t="n">
         <v>-1132400000.0</v>
       </c>
-      <c r="W18" s="0" t="n">
+      <c r="X18" s="0" t="n">
         <v>-1163000000.0</v>
       </c>
-      <c r="X18" s="0" t="n">
+      <c r="Y18" s="0" t="n">
         <v>-983000000.0</v>
       </c>
-      <c r="Y18" s="0" t="n">
+      <c r="Z18" s="0" t="n">
         <v>-693000000.0</v>
       </c>
-      <c r="Z18" s="0" t="n">
+      <c r="AA18" s="0" t="n">
         <v>-940900000.0</v>
       </c>
-      <c r="AA18" s="0" t="n">
+      <c r="AB18" s="0" t="n">
         <v>-814700000.0</v>
       </c>
-      <c r="AB18" s="0" t="n">
+      <c r="AC18" s="0" t="n">
         <v>-667200000.0</v>
       </c>
-      <c r="AC18" s="0" t="n">
+      <c r="AD18" s="0" t="n">
         <v>-624800000.0</v>
       </c>
-      <c r="AD18" s="0" t="n">
+      <c r="AE18" s="0" t="n">
         <v>-266100000.0</v>
       </c>
-      <c r="AE18" s="0" t="n">
+      <c r="AF18" s="0" t="n">
         <v>-281800000.0</v>
       </c>
-      <c r="AF18" s="0" t="n">
+      <c r="AG18" s="0" t="n">
         <v>-387700000.0</v>
       </c>
-      <c r="AG18" s="0" t="n">
+      <c r="AH18" s="0" t="n">
         <v>-405900000.0</v>
       </c>
-      <c r="AH18" s="0" t="n">
+      <c r="AI18" s="0" t="n">
         <v>-396800000.0</v>
       </c>
-      <c r="AI18" s="0" t="n">
+      <c r="AJ18" s="0" t="n">
         <v>-355200000.0</v>
       </c>
-      <c r="AJ18" s="0" t="n">
+      <c r="AK18" s="0" t="n">
         <v>-592700000.0</v>
       </c>
-      <c r="AK18" s="0" t="n">
+      <c r="AL18" s="0" t="n">
         <v>-600000000.0</v>
       </c>
-      <c r="AL18" s="0" t="n">
+      <c r="AM18" s="0" t="n">
         <v>-746000000.0</v>
       </c>
-      <c r="AM18" s="0" t="n">
+      <c r="AN18" s="0" t="n">
         <v>-655700000.0</v>
       </c>
-      <c r="AN18" s="0" t="n">
+      <c r="AO18" s="0" t="n">
         <v>-396600000.0</v>
       </c>
     </row>
@@ -2587,110 +2674,112 @@
           <t>Dividends Paid (Total)</t>
         </is>
       </c>
-      <c r="B19" s="0" t="n">
+      <c r="B19" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C19" s="0" t="n">
         <v>-541000000.0</v>
       </c>
-      <c r="C19" s="0" t="n">
+      <c r="D19" s="0" t="n">
         <v>-521000000.0</v>
       </c>
-      <c r="D19" s="0" t="n">
+      <c r="E19" s="0" t="n">
         <v>-503000000.0</v>
       </c>
-      <c r="E19" s="0" t="n">
+      <c r="F19" s="0" t="n">
         <v>-658000000.0</v>
       </c>
-      <c r="F19" s="0" t="n">
+      <c r="G19" s="0" t="n">
         <v>-642000000.0</v>
       </c>
-      <c r="G19" s="0" t="n">
+      <c r="H19" s="0" t="n">
         <v>-624000000.0</v>
       </c>
-      <c r="H19" s="0" t="n">
+      <c r="I19" s="0" t="n">
         <v>-609000000.0</v>
       </c>
-      <c r="I19" s="0" t="n">
+      <c r="J19" s="0" t="n">
         <v>-592000000.0</v>
       </c>
-      <c r="J19" s="0" t="n">
+      <c r="K19" s="0" t="n">
         <v>-576000000.0</v>
       </c>
-      <c r="K19" s="0" t="n">
+      <c r="L19" s="0" t="n">
         <v>-561000000.0</v>
       </c>
-      <c r="L19" s="0" t="n">
+      <c r="M19" s="0" t="n">
         <v>-546000000.0</v>
       </c>
-      <c r="M19" s="0" t="n">
+      <c r="N19" s="0" t="n">
         <v>-532000000.0</v>
       </c>
-      <c r="N19" s="0" t="n">
+      <c r="O19" s="0" t="n">
         <v>-517000000.0</v>
       </c>
-      <c r="O19" s="0" t="n">
+      <c r="P19" s="0" t="n">
         <v>-501000000.0</v>
       </c>
-      <c r="P19" s="0" t="n">
+      <c r="Q19" s="0" t="n">
         <v>-486000000.0</v>
       </c>
-      <c r="Q19" s="0" t="n">
+      <c r="R19" s="0" t="n">
         <v>-472000000.0</v>
       </c>
-      <c r="R19" s="0" t="n">
+      <c r="S19" s="0" t="n">
         <v>-458000000.0</v>
       </c>
-      <c r="S19" s="0" t="n">
+      <c r="T19" s="0" t="n">
         <v>-444000000.0</v>
       </c>
-      <c r="T19" s="0" t="n">
+      <c r="U19" s="0" t="n">
         <v>-423000000.0</v>
       </c>
-      <c r="U19" s="0" t="n">
+      <c r="V19" s="0" t="n">
         <v>-402200000.0</v>
       </c>
-      <c r="V19" s="0" t="n">
+      <c r="W19" s="0" t="n">
         <v>-382100000.0</v>
       </c>
-      <c r="W19" s="0" t="n">
+      <c r="X19" s="0" t="n">
         <v>-362500000.0</v>
       </c>
-      <c r="X19" s="0" t="n">
+      <c r="Y19" s="0" t="n">
         <v>-350000000.0</v>
       </c>
-      <c r="Y19" s="0" t="n">
+      <c r="Z19" s="0" t="n">
         <v>-336400000.0</v>
       </c>
-      <c r="Z19" s="0" t="n">
+      <c r="AA19" s="0" t="n">
         <v>-322300000.0</v>
       </c>
-      <c r="AA19" s="0" t="n">
+      <c r="AB19" s="0" t="n">
         <v>-309500000.0</v>
       </c>
-      <c r="AB19" s="0" t="n">
+      <c r="AC19" s="0" t="n">
         <v>-301800000.0</v>
       </c>
-      <c r="AC19" s="0" t="n">
+      <c r="AD19" s="0" t="n">
         <v>-295100000.0</v>
       </c>
-      <c r="AD19" s="0" t="n">
+      <c r="AE19" s="0" t="n">
         <v>-288100000.0</v>
       </c>
-      <c r="AE19" s="0" t="n">
+      <c r="AF19" s="0" t="n">
         <v>-488500000.0</v>
       </c>
-      <c r="AF19" s="0" t="n">
+      <c r="AG19" s="0" t="n">
         <v>-419200000.0</v>
       </c>
-      <c r="AG19" s="0" t="n">
+      <c r="AH19" s="0" t="n">
         <v>-349300000.0</v>
       </c>
-      <c r="AH19" s="0" t="n">
+      <c r="AI19" s="0" t="n">
         <v>-279500000.0</v>
       </c>
-      <c r="AI19" s="0" t="n">
+      <c r="AJ19" s="0" t="n">
         <v>-204200000.0</v>
-      </c>
-      <c r="AJ19" s="0" t="n">
-        <v>-204000000.0</v>
       </c>
       <c r="AK19" s="0" t="n">
         <v>-204000000.0</v>
@@ -2699,9 +2788,12 @@
         <v>-204000000.0</v>
       </c>
       <c r="AM19" s="0" t="n">
+        <v>-204000000.0</v>
+      </c>
+      <c r="AN19" s="0" t="n">
         <v>-148200000.0</v>
       </c>
-      <c r="AN19" s="0" t="n">
+      <c r="AO19" s="0" t="n">
         <v>-148000000.0</v>
       </c>
     </row>
@@ -2711,121 +2803,126 @@
           <t>Other financial activities</t>
         </is>
       </c>
-      <c r="B20" s="0" t="n">
+      <c r="B20" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C20" s="0" t="n">
         <v>1013000000.0</v>
       </c>
-      <c r="C20" s="0" t="n">
+      <c r="D20" s="0" t="n">
         <v>1105000000.0</v>
       </c>
-      <c r="D20" s="0" t="n">
+      <c r="E20" s="0" t="n">
         <v>1086000000.0</v>
       </c>
-      <c r="E20" s="0" t="n">
+      <c r="F20" s="0" t="n">
         <v>785000000.0</v>
       </c>
-      <c r="F20" s="0" t="n">
+      <c r="G20" s="0" t="n">
         <v>446000000.0</v>
       </c>
-      <c r="G20" s="0" t="n">
+      <c r="H20" s="0" t="n">
         <v>184000000.0</v>
       </c>
-      <c r="H20" s="0" t="n">
+      <c r="I20" s="0" t="n">
         <v>163000000.0</v>
       </c>
-      <c r="I20" s="0" t="n">
+      <c r="J20" s="0" t="n">
         <v>138000000.0</v>
       </c>
-      <c r="J20" s="0" t="n">
+      <c r="K20" s="0" t="n">
         <v>117000000.0</v>
       </c>
-      <c r="K20" s="0" t="n">
+      <c r="L20" s="0" t="n">
         <v>127000000.0</v>
       </c>
-      <c r="L20" s="0" t="n">
+      <c r="M20" s="0" t="n">
         <v>143000000.0</v>
       </c>
-      <c r="M20" s="0" t="n">
+      <c r="N20" s="0" t="n">
         <v>209000000.0</v>
       </c>
-      <c r="N20" s="0" t="n">
+      <c r="O20" s="0" t="n">
         <v>199000000.0</v>
       </c>
-      <c r="O20" s="0" t="n">
+      <c r="P20" s="0" t="n">
         <v>184000000.0</v>
       </c>
-      <c r="P20" s="0" t="n">
+      <c r="Q20" s="0" t="n">
         <v>172000000.0</v>
       </c>
-      <c r="Q20" s="0" t="n">
+      <c r="R20" s="0" t="n">
         <v>149000000.0</v>
       </c>
-      <c r="R20" s="0" t="n">
+      <c r="S20" s="0" t="n">
         <v>122000000.0</v>
       </c>
-      <c r="S20" s="0" t="n">
+      <c r="T20" s="0" t="n">
         <v>127000000.0</v>
       </c>
-      <c r="T20" s="0" t="n">
+      <c r="U20" s="0" t="n">
         <v>100000000.0</v>
       </c>
-      <c r="U20" s="0" t="n">
+      <c r="V20" s="0" t="n">
         <v>90200000.0</v>
       </c>
-      <c r="V20" s="0" t="n">
+      <c r="W20" s="0" t="n">
         <v>138200000.0</v>
       </c>
-      <c r="W20" s="0" t="n">
+      <c r="X20" s="0" t="n">
         <v>129600000.0</v>
       </c>
-      <c r="X20" s="0" t="n">
+      <c r="Y20" s="0" t="n">
         <v>139000000.0</v>
       </c>
-      <c r="Y20" s="0" t="n">
+      <c r="Z20" s="0" t="n">
         <v>153000000.0</v>
       </c>
-      <c r="Z20" s="0" t="n">
+      <c r="AA20" s="0" t="n">
         <v>99100000.0</v>
       </c>
-      <c r="AA20" s="0" t="n">
+      <c r="AB20" s="0" t="n">
         <v>119300000.0</v>
       </c>
-      <c r="AB20" s="0" t="n">
+      <c r="AC20" s="0" t="n">
         <v>118800000.0</v>
       </c>
-      <c r="AC20" s="0" t="n">
+      <c r="AD20" s="0" t="n">
         <v>107100000.0</v>
       </c>
-      <c r="AD20" s="0" t="n">
+      <c r="AE20" s="0" t="n">
         <v>123800000.0</v>
       </c>
-      <c r="AE20" s="0" t="n">
+      <c r="AF20" s="0" t="n">
         <v>126900000.0</v>
       </c>
-      <c r="AF20" s="0" t="n">
+      <c r="AG20" s="0" t="n">
         <v>136700000.0</v>
       </c>
-      <c r="AG20" s="0" t="n">
+      <c r="AH20" s="0" t="n">
         <v>138200000.0</v>
       </c>
-      <c r="AH20" s="0" t="n">
+      <c r="AI20" s="0" t="n">
         <v>138900000.0</v>
       </c>
-      <c r="AI20" s="0" t="n">
+      <c r="AJ20" s="0" t="n">
         <v>157200000.0</v>
       </c>
-      <c r="AJ20" s="0" t="n">
+      <c r="AK20" s="0" t="n">
         <v>143000000.0</v>
       </c>
-      <c r="AK20" s="0" t="n">
+      <c r="AL20" s="0" t="n">
         <v>152400000.0</v>
       </c>
-      <c r="AL20" s="0" t="n">
+      <c r="AM20" s="0" t="n">
         <v>191100000.0</v>
       </c>
-      <c r="AM20" s="0" t="n">
+      <c r="AN20" s="0" t="n">
         <v>198200000.0</v>
       </c>
-      <c r="AN20" s="0" t="n">
+      <c r="AO20" s="0" t="n">
         <v>247600000.0</v>
       </c>
     </row>
@@ -2835,121 +2932,126 @@
           <t>Financing cash flow</t>
         </is>
       </c>
-      <c r="B21" s="0" t="n">
+      <c r="B21" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C21" s="0" t="n">
         <v>-343000000.0</v>
       </c>
-      <c r="C21" s="0" t="n">
+      <c r="D21" s="0" t="n">
         <v>987000000.0</v>
       </c>
-      <c r="D21" s="0" t="n">
+      <c r="E21" s="0" t="n">
         <v>1461000000.0</v>
       </c>
-      <c r="E21" s="0" t="n">
+      <c r="F21" s="0" t="n">
         <v>1166000000.0</v>
       </c>
-      <c r="F21" s="0" t="n">
+      <c r="G21" s="0" t="n">
         <v>50000000.0</v>
       </c>
-      <c r="G21" s="0" t="n">
+      <c r="H21" s="0" t="n">
         <v>-1947000000.0</v>
       </c>
-      <c r="H21" s="0" t="n">
+      <c r="I21" s="0" t="n">
         <v>-2173000000.0</v>
       </c>
-      <c r="I21" s="0" t="n">
+      <c r="J21" s="0" t="n">
         <v>-2164000000.0</v>
       </c>
-      <c r="J21" s="0" t="n">
+      <c r="K21" s="0" t="n">
         <v>-2346000000.0</v>
       </c>
-      <c r="K21" s="0" t="n">
+      <c r="L21" s="0" t="n">
         <v>-1987000000.0</v>
       </c>
-      <c r="L21" s="0" t="n">
+      <c r="M21" s="0" t="n">
         <v>-1172000000.0</v>
       </c>
-      <c r="M21" s="0" t="n">
+      <c r="N21" s="0" t="n">
         <v>-1275000000.0</v>
       </c>
-      <c r="N21" s="0" t="n">
+      <c r="O21" s="0" t="n">
         <v>-1002000000.0</v>
       </c>
-      <c r="O21" s="0" t="n">
+      <c r="P21" s="0" t="n">
         <v>839000000.0</v>
       </c>
-      <c r="P21" s="0" t="n">
+      <c r="Q21" s="0" t="n">
         <v>630000000.0</v>
       </c>
-      <c r="Q21" s="0" t="n">
+      <c r="R21" s="0" t="n">
         <v>1143000000.0</v>
       </c>
-      <c r="R21" s="0" t="n">
+      <c r="S21" s="0" t="n">
         <v>1118000000.0</v>
       </c>
-      <c r="S21" s="0" t="n">
+      <c r="T21" s="0" t="n">
         <v>-597000000.0</v>
       </c>
-      <c r="T21" s="0" t="n">
+      <c r="U21" s="0" t="n">
         <v>-605000000.0</v>
       </c>
-      <c r="U21" s="0" t="n">
+      <c r="V21" s="0" t="n">
         <v>-905600000.0</v>
       </c>
-      <c r="V21" s="0" t="n">
+      <c r="W21" s="0" t="n">
         <v>-779900000.0</v>
       </c>
-      <c r="W21" s="0" t="n">
+      <c r="X21" s="0" t="n">
         <v>-666400000.0</v>
       </c>
-      <c r="X21" s="0" t="n">
+      <c r="Y21" s="0" t="n">
         <v>-895000000.0</v>
       </c>
-      <c r="Y21" s="0" t="n">
+      <c r="Z21" s="0" t="n">
         <v>-766600000.0</v>
       </c>
-      <c r="Z21" s="0" t="n">
+      <c r="AA21" s="0" t="n">
         <v>-1121900000.0</v>
       </c>
-      <c r="AA21" s="0" t="n">
+      <c r="AB21" s="0" t="n">
         <v>-1014600000.0</v>
       </c>
-      <c r="AB21" s="0" t="n">
+      <c r="AC21" s="0" t="n">
         <v>-856900000.0</v>
       </c>
-      <c r="AC21" s="0" t="n">
+      <c r="AD21" s="0" t="n">
         <v>-819700000.0</v>
       </c>
-      <c r="AD21" s="0" t="n">
+      <c r="AE21" s="0" t="n">
         <v>-442100000.0</v>
       </c>
-      <c r="AE21" s="0" t="n">
+      <c r="AF21" s="0" t="n">
         <v>-655600000.0</v>
       </c>
-      <c r="AF21" s="0" t="n">
+      <c r="AG21" s="0" t="n">
         <v>-611500000.0</v>
       </c>
-      <c r="AG21" s="0" t="n">
+      <c r="AH21" s="0" t="n">
         <v>-480900000.0</v>
       </c>
-      <c r="AH21" s="0" t="n">
+      <c r="AI21" s="0" t="n">
         <v>-399900000.0</v>
       </c>
-      <c r="AI21" s="0" t="n">
+      <c r="AJ21" s="0" t="n">
         <v>-265000000.0</v>
       </c>
-      <c r="AJ21" s="0" t="n">
+      <c r="AK21" s="0" t="n">
         <v>-585100000.0</v>
       </c>
-      <c r="AK21" s="0" t="n">
+      <c r="AL21" s="0" t="n">
         <v>-665000000.0</v>
       </c>
-      <c r="AL21" s="0" t="n">
+      <c r="AM21" s="0" t="n">
         <v>-771400000.0</v>
       </c>
-      <c r="AM21" s="0" t="n">
+      <c r="AN21" s="0" t="n">
         <v>-620600000.0</v>
       </c>
-      <c r="AN21" s="0" t="n">
+      <c r="AO21" s="0" t="n">
         <v>-313100000.0</v>
       </c>
     </row>
@@ -2959,121 +3061,126 @@
           <t>Exchange Rate Adjustment</t>
         </is>
       </c>
-      <c r="B22" s="0" t="n">
+      <c r="B22" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C22" s="0" t="n">
         <v>36000000.0</v>
       </c>
-      <c r="C22" s="0" t="n">
+      <c r="D22" s="0" t="n">
         <v>25000000.0</v>
       </c>
-      <c r="D22" s="0" t="n">
+      <c r="E22" s="0" t="n">
         <v>-8000000.0</v>
       </c>
-      <c r="E22" s="0" t="n">
+      <c r="F22" s="0" t="n">
         <v>-40000000.0</v>
       </c>
-      <c r="F22" s="0" t="n">
+      <c r="G22" s="0" t="n">
         <v>13000000.0</v>
       </c>
-      <c r="G22" s="0" t="n">
+      <c r="H22" s="0" t="n">
         <v>-17000000.0</v>
       </c>
-      <c r="H22" s="0" t="n">
+      <c r="I22" s="0" t="n">
         <v>-11000000.0</v>
       </c>
-      <c r="I22" s="0" t="n">
+      <c r="J22" s="0" t="n">
         <v>-32000000.0</v>
       </c>
-      <c r="J22" s="0" t="n">
+      <c r="K22" s="0" t="n">
         <v>-19000000.0</v>
       </c>
-      <c r="K22" s="0" t="n">
+      <c r="L22" s="0" t="n">
         <v>-1000000.0</v>
       </c>
-      <c r="L22" s="0" t="n">
+      <c r="M22" s="0" t="n">
         <v>13000000.0</v>
       </c>
-      <c r="M22" s="0" t="n">
+      <c r="N22" s="0" t="n">
         <v>60000000.0</v>
       </c>
-      <c r="N22" s="0" t="n">
+      <c r="O22" s="0" t="n">
         <v>50000000.0</v>
       </c>
-      <c r="O22" s="0" t="n">
+      <c r="P22" s="0" t="n">
         <v>10000000.0</v>
       </c>
-      <c r="P22" s="0" t="n">
+      <c r="Q22" s="0" t="n">
         <v>6000000.0</v>
       </c>
-      <c r="Q22" s="0" t="n">
+      <c r="R22" s="0" t="n">
         <v>-7000000.0</v>
       </c>
-      <c r="R22" s="0" t="n">
+      <c r="S22" s="0" t="n">
         <v>-23000000.0</v>
       </c>
-      <c r="S22" s="0" t="n">
+      <c r="T22" s="0" t="n">
         <v>-7000000.0</v>
       </c>
-      <c r="T22" s="0" t="n">
+      <c r="U22" s="0" t="n">
         <v>-22000000.0</v>
       </c>
-      <c r="U22" s="0" t="n">
+      <c r="V22" s="0" t="n">
         <v>-19800000.0</v>
       </c>
-      <c r="V22" s="0" t="n">
+      <c r="W22" s="0" t="n">
         <v>-35400000.0</v>
       </c>
-      <c r="W22" s="0" t="n">
+      <c r="X22" s="0" t="n">
         <v>-44500000.0</v>
       </c>
-      <c r="X22" s="0" t="n">
+      <c r="Y22" s="0" t="n">
         <v>-40000000.0</v>
       </c>
-      <c r="Y22" s="0" t="n">
+      <c r="Z22" s="0" t="n">
         <v>-26500000.0</v>
       </c>
-      <c r="Z22" s="0" t="n">
+      <c r="AA22" s="0" t="n">
         <v>-55600000.0</v>
       </c>
-      <c r="AA22" s="0" t="n">
+      <c r="AB22" s="0" t="n">
         <v>-48200000.0</v>
       </c>
-      <c r="AB22" s="0" t="n">
+      <c r="AC22" s="0" t="n">
         <v>-33300000.0</v>
       </c>
-      <c r="AC22" s="0" t="n">
+      <c r="AD22" s="0" t="n">
         <v>-51300000.0</v>
       </c>
-      <c r="AD22" s="0" t="n">
+      <c r="AE22" s="0" t="n">
         <v>-11100000.0</v>
       </c>
-      <c r="AE22" s="0" t="n">
+      <c r="AF22" s="0" t="n">
         <v>-1100000.0</v>
       </c>
-      <c r="AF22" s="0" t="n">
+      <c r="AG22" s="0" t="n">
         <v>-1300000.0</v>
       </c>
-      <c r="AG22" s="0" t="n">
+      <c r="AH22" s="0" t="n">
         <v>-4900000.0</v>
       </c>
-      <c r="AH22" s="0" t="n">
+      <c r="AI22" s="0" t="n">
         <v>8100000.0</v>
       </c>
-      <c r="AI22" s="0" t="n">
+      <c r="AJ22" s="0" t="n">
         <v>5500000.0</v>
       </c>
-      <c r="AJ22" s="0" t="n">
+      <c r="AK22" s="0" t="n">
         <v>-18600000.0</v>
       </c>
-      <c r="AK22" s="0" t="n">
+      <c r="AL22" s="0" t="n">
         <v>-3700000.0</v>
       </c>
-      <c r="AL22" s="0" t="n">
+      <c r="AM22" s="0" t="n">
         <v>-6600000.0</v>
       </c>
-      <c r="AM22" s="0" t="n">
+      <c r="AN22" s="0" t="n">
         <v>-4100000.0</v>
       </c>
-      <c r="AN22" s="0" t="n">
+      <c r="AO22" s="0" t="n">
         <v>25300000.0</v>
       </c>
     </row>
@@ -3083,121 +3190,126 @@
           <t>Change in Cash</t>
         </is>
       </c>
-      <c r="B23" s="0" t="n">
+      <c r="B23" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C23" s="0" t="n">
         <v>1949000000.0</v>
       </c>
-      <c r="C23" s="0" t="n">
+      <c r="D23" s="0" t="n">
         <v>2008000000.0</v>
       </c>
-      <c r="D23" s="0" t="n">
+      <c r="E23" s="0" t="n">
         <v>2035000000.0</v>
       </c>
-      <c r="E23" s="0" t="n">
+      <c r="F23" s="0" t="n">
         <v>1974000000.0</v>
       </c>
-      <c r="F23" s="0" t="n">
+      <c r="G23" s="0" t="n">
         <v>1720000000.0</v>
       </c>
-      <c r="G23" s="0" t="n">
+      <c r="H23" s="0" t="n">
         <v>816000000.0</v>
       </c>
-      <c r="H23" s="0" t="n">
+      <c r="I23" s="0" t="n">
         <v>806000000.0</v>
       </c>
-      <c r="I23" s="0" t="n">
+      <c r="J23" s="0" t="n">
         <v>762000000.0</v>
       </c>
-      <c r="J23" s="0" t="n">
+      <c r="K23" s="0" t="n">
         <v>-229000000.0</v>
       </c>
-      <c r="K23" s="0" t="n">
+      <c r="L23" s="0" t="n">
         <v>-1000000.0</v>
       </c>
-      <c r="L23" s="0" t="n">
+      <c r="M23" s="0" t="n">
         <v>1045000000.0</v>
       </c>
-      <c r="M23" s="0" t="n">
+      <c r="N23" s="0" t="n">
         <v>1001000000.0</v>
       </c>
-      <c r="N23" s="0" t="n">
+      <c r="O23" s="0" t="n">
         <v>843000000.0</v>
       </c>
-      <c r="O23" s="0" t="n">
+      <c r="P23" s="0" t="n">
         <v>780000000.0</v>
       </c>
-      <c r="P23" s="0" t="n">
+      <c r="Q23" s="0" t="n">
         <v>222000000.0</v>
       </c>
-      <c r="Q23" s="0" t="n">
+      <c r="R23" s="0" t="n">
         <v>583000000.0</v>
       </c>
-      <c r="R23" s="0" t="n">
+      <c r="S23" s="0" t="n">
         <v>394000000.0</v>
       </c>
-      <c r="S23" s="0" t="n">
+      <c r="T23" s="0" t="n">
         <v>256000000.0</v>
       </c>
-      <c r="T23" s="0" t="n">
+      <c r="U23" s="0" t="n">
         <v>-107000000.0</v>
       </c>
-      <c r="U23" s="0" t="n">
+      <c r="V23" s="0" t="n">
         <v>-732200000.0</v>
       </c>
-      <c r="V23" s="0" t="n">
+      <c r="W23" s="0" t="n">
         <v>-373100000.0</v>
       </c>
-      <c r="W23" s="0" t="n">
+      <c r="X23" s="0" t="n">
         <v>-987300000.0</v>
       </c>
-      <c r="X23" s="0" t="n">
+      <c r="Y23" s="0" t="n">
         <v>-608000000.0</v>
       </c>
-      <c r="Y23" s="0" t="n">
+      <c r="Z23" s="0" t="n">
         <v>-241900000.0</v>
       </c>
-      <c r="Z23" s="0" t="n">
+      <c r="AA23" s="0" t="n">
         <v>-506800000.0</v>
       </c>
-      <c r="AA23" s="0" t="n">
+      <c r="AB23" s="0" t="n">
         <v>73200000.0</v>
       </c>
-      <c r="AB23" s="0" t="n">
+      <c r="AC23" s="0" t="n">
         <v>133400000.0</v>
       </c>
-      <c r="AC23" s="0" t="n">
+      <c r="AD23" s="0" t="n">
         <v>91600000.0</v>
       </c>
-      <c r="AD23" s="0" t="n">
+      <c r="AE23" s="0" t="n">
         <v>424400000.0</v>
       </c>
-      <c r="AE23" s="0" t="n">
+      <c r="AF23" s="0" t="n">
         <v>268500000.0</v>
       </c>
-      <c r="AF23" s="0" t="n">
+      <c r="AG23" s="0" t="n">
         <v>148000000.0</v>
       </c>
-      <c r="AG23" s="0" t="n">
+      <c r="AH23" s="0" t="n">
         <v>245800000.0</v>
       </c>
-      <c r="AH23" s="0" t="n">
+      <c r="AI23" s="0" t="n">
         <v>324500000.0</v>
       </c>
-      <c r="AI23" s="0" t="n">
+      <c r="AJ23" s="0" t="n">
         <v>334200000.0</v>
       </c>
-      <c r="AJ23" s="0" t="n">
+      <c r="AK23" s="0" t="n">
         <v>94700000.0</v>
       </c>
-      <c r="AK23" s="0" t="n">
+      <c r="AL23" s="0" t="n">
         <v>93800000.0</v>
       </c>
-      <c r="AL23" s="0" t="n">
+      <c r="AM23" s="0" t="n">
         <v>-44000000.0</v>
       </c>
-      <c r="AM23" s="0" t="n">
+      <c r="AN23" s="0" t="n">
         <v>26000000.0</v>
       </c>
-      <c r="AN23" s="0" t="n">
+      <c r="AO23" s="0" t="n">
         <v>132300000.0</v>
       </c>
     </row>
@@ -3207,14 +3319,16 @@
           <t>Beginning Cash</t>
         </is>
       </c>
-      <c r="B24" s="0" t="n">
-        <v>5022000000.0</v>
+      <c r="B24" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="C24" s="0" t="n">
         <v>5022000000.0</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>2987000000.0</v>
+        <v>5022000000.0</v>
       </c>
       <c r="E24" s="0" t="n">
         <v>2987000000.0</v>
@@ -3226,7 +3340,7 @@
         <v>2987000000.0</v>
       </c>
       <c r="H24" s="0" t="n">
-        <v>2181000000.0</v>
+        <v>2987000000.0</v>
       </c>
       <c r="I24" s="0" t="n">
         <v>2181000000.0</v>
@@ -3238,7 +3352,7 @@
         <v>2181000000.0</v>
       </c>
       <c r="L24" s="0" t="n">
-        <v>1136000000.0</v>
+        <v>2181000000.0</v>
       </c>
       <c r="M24" s="0" t="n">
         <v>1136000000.0</v>
@@ -3250,7 +3364,7 @@
         <v>1136000000.0</v>
       </c>
       <c r="P24" s="0" t="n">
-        <v>914000000.0</v>
+        <v>1136000000.0</v>
       </c>
       <c r="Q24" s="0" t="n">
         <v>914000000.0</v>
@@ -3262,10 +3376,10 @@
         <v>914000000.0</v>
       </c>
       <c r="T24" s="0" t="n">
+        <v>914000000.0</v>
+      </c>
+      <c r="U24" s="0" t="n">
         <v>1021000000.0</v>
-      </c>
-      <c r="U24" s="0" t="n">
-        <v>1020900000.0</v>
       </c>
       <c r="V24" s="0" t="n">
         <v>1020900000.0</v>
@@ -3274,10 +3388,10 @@
         <v>1020900000.0</v>
       </c>
       <c r="X24" s="0" t="n">
+        <v>1020900000.0</v>
+      </c>
+      <c r="Y24" s="0" t="n">
         <v>1629000000.0</v>
-      </c>
-      <c r="Y24" s="0" t="n">
-        <v>1629100000.0</v>
       </c>
       <c r="Z24" s="0" t="n">
         <v>1629100000.0</v>
@@ -3286,7 +3400,7 @@
         <v>1629100000.0</v>
       </c>
       <c r="AB24" s="0" t="n">
-        <v>1495700000.0</v>
+        <v>1629100000.0</v>
       </c>
       <c r="AC24" s="0" t="n">
         <v>1495700000.0</v>
@@ -3298,7 +3412,7 @@
         <v>1495700000.0</v>
       </c>
       <c r="AF24" s="0" t="n">
-        <v>1347700000.0</v>
+        <v>1495700000.0</v>
       </c>
       <c r="AG24" s="0" t="n">
         <v>1347700000.0</v>
@@ -3310,7 +3424,7 @@
         <v>1347700000.0</v>
       </c>
       <c r="AJ24" s="0" t="n">
-        <v>1253000000.0</v>
+        <v>1347700000.0</v>
       </c>
       <c r="AK24" s="0" t="n">
         <v>1253000000.0</v>
@@ -3322,6 +3436,9 @@
         <v>1253000000.0</v>
       </c>
       <c r="AN24" s="0" t="n">
+        <v>1253000000.0</v>
+      </c>
+      <c r="AO24" s="0" t="n">
         <v>1120700000.0</v>
       </c>
     </row>
@@ -3331,121 +3448,126 @@
           <t>Ending Cash</t>
         </is>
       </c>
-      <c r="B25" s="0" t="n">
+      <c r="B25" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C25" s="0" t="n">
         <v>6971000000.0</v>
       </c>
-      <c r="C25" s="0" t="n">
+      <c r="D25" s="0" t="n">
         <v>7030000000.0</v>
       </c>
-      <c r="D25" s="0" t="n">
+      <c r="E25" s="0" t="n">
         <v>5022000000.0</v>
       </c>
-      <c r="E25" s="0" t="n">
+      <c r="F25" s="0" t="n">
         <v>4961000000.0</v>
       </c>
-      <c r="F25" s="0" t="n">
+      <c r="G25" s="0" t="n">
         <v>4707000000.0</v>
       </c>
-      <c r="G25" s="0" t="n">
+      <c r="H25" s="0" t="n">
         <v>3803000000.0</v>
       </c>
-      <c r="H25" s="0" t="n">
+      <c r="I25" s="0" t="n">
         <v>2987000000.0</v>
       </c>
-      <c r="I25" s="0" t="n">
+      <c r="J25" s="0" t="n">
         <v>2943000000.0</v>
       </c>
-      <c r="J25" s="0" t="n">
+      <c r="K25" s="0" t="n">
         <v>1952000000.0</v>
       </c>
-      <c r="K25" s="0" t="n">
+      <c r="L25" s="0" t="n">
         <v>2180000000.0</v>
       </c>
-      <c r="L25" s="0" t="n">
+      <c r="M25" s="0" t="n">
         <v>2181000000.0</v>
       </c>
-      <c r="M25" s="0" t="n">
+      <c r="N25" s="0" t="n">
         <v>2137000000.0</v>
       </c>
-      <c r="N25" s="0" t="n">
+      <c r="O25" s="0" t="n">
         <v>1979000000.0</v>
       </c>
-      <c r="O25" s="0" t="n">
+      <c r="P25" s="0" t="n">
         <v>1916000000.0</v>
       </c>
-      <c r="P25" s="0" t="n">
+      <c r="Q25" s="0" t="n">
         <v>1136000000.0</v>
       </c>
-      <c r="Q25" s="0" t="n">
+      <c r="R25" s="0" t="n">
         <v>1497000000.0</v>
       </c>
-      <c r="R25" s="0" t="n">
+      <c r="S25" s="0" t="n">
         <v>1308000000.0</v>
       </c>
-      <c r="S25" s="0" t="n">
+      <c r="T25" s="0" t="n">
         <v>1170000000.0</v>
       </c>
-      <c r="T25" s="0" t="n">
+      <c r="U25" s="0" t="n">
         <v>914000000.0</v>
       </c>
-      <c r="U25" s="0" t="n">
+      <c r="V25" s="0" t="n">
         <v>288700000.0</v>
       </c>
-      <c r="V25" s="0" t="n">
+      <c r="W25" s="0" t="n">
         <v>647800000.0</v>
       </c>
-      <c r="W25" s="0" t="n">
+      <c r="X25" s="0" t="n">
         <v>33600000.0</v>
       </c>
-      <c r="X25" s="0" t="n">
+      <c r="Y25" s="0" t="n">
         <v>1021000000.0</v>
       </c>
-      <c r="Y25" s="0" t="n">
+      <c r="Z25" s="0" t="n">
         <v>1387200000.0</v>
       </c>
-      <c r="Z25" s="0" t="n">
+      <c r="AA25" s="0" t="n">
         <v>1122300000.0</v>
       </c>
-      <c r="AA25" s="0" t="n">
+      <c r="AB25" s="0" t="n">
         <v>1702300000.0</v>
       </c>
-      <c r="AB25" s="0" t="n">
+      <c r="AC25" s="0" t="n">
         <v>1629100000.0</v>
       </c>
-      <c r="AC25" s="0" t="n">
+      <c r="AD25" s="0" t="n">
         <v>1587300000.0</v>
       </c>
-      <c r="AD25" s="0" t="n">
+      <c r="AE25" s="0" t="n">
         <v>1920100000.0</v>
       </c>
-      <c r="AE25" s="0" t="n">
+      <c r="AF25" s="0" t="n">
         <v>1764200000.0</v>
       </c>
-      <c r="AF25" s="0" t="n">
+      <c r="AG25" s="0" t="n">
         <v>1495700000.0</v>
       </c>
-      <c r="AG25" s="0" t="n">
+      <c r="AH25" s="0" t="n">
         <v>1593500000.0</v>
       </c>
-      <c r="AH25" s="0" t="n">
+      <c r="AI25" s="0" t="n">
         <v>1672200000.0</v>
       </c>
-      <c r="AI25" s="0" t="n">
+      <c r="AJ25" s="0" t="n">
         <v>1681900000.0</v>
       </c>
-      <c r="AJ25" s="0" t="n">
+      <c r="AK25" s="0" t="n">
         <v>1347700000.0</v>
       </c>
-      <c r="AK25" s="0" t="n">
+      <c r="AL25" s="0" t="n">
         <v>1346800000.0</v>
       </c>
-      <c r="AL25" s="0" t="n">
+      <c r="AM25" s="0" t="n">
         <v>1209000000.0</v>
       </c>
-      <c r="AM25" s="0" t="n">
+      <c r="AN25" s="0" t="n">
         <v>1279000000.0</v>
       </c>
-      <c r="AN25" s="0" t="n">
+      <c r="AO25" s="0" t="n">
         <v>1253000000.0</v>
       </c>
     </row>
@@ -3455,121 +3577,126 @@
           <t>Stock Based Compensation</t>
         </is>
       </c>
-      <c r="B26" s="0" t="n">
+      <c r="B26" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C26" s="0" t="n">
         <v>243000000.0</v>
       </c>
-      <c r="C26" s="0" t="n">
+      <c r="D26" s="0" t="n">
         <v>221000000.0</v>
       </c>
-      <c r="D26" s="0" t="n">
+      <c r="E26" s="0" t="n">
         <v>213000000.0</v>
       </c>
-      <c r="E26" s="0" t="n">
+      <c r="F26" s="0" t="n">
         <v>252000000.0</v>
       </c>
-      <c r="F26" s="0" t="n">
+      <c r="G26" s="0" t="n">
         <v>251000000.0</v>
       </c>
-      <c r="G26" s="0" t="n">
+      <c r="H26" s="0" t="n">
         <v>241000000.0</v>
       </c>
-      <c r="H26" s="0" t="n">
+      <c r="I26" s="0" t="n">
         <v>243000000.0</v>
       </c>
-      <c r="I26" s="0" t="n">
+      <c r="J26" s="0" t="n">
         <v>241000000.0</v>
       </c>
-      <c r="J26" s="0" t="n">
+      <c r="K26" s="0" t="n">
         <v>235000000.0</v>
       </c>
-      <c r="K26" s="0" t="n">
+      <c r="L26" s="0" t="n">
         <v>237000000.0</v>
       </c>
-      <c r="L26" s="0" t="n">
+      <c r="M26" s="0" t="n">
         <v>236000000.0</v>
       </c>
-      <c r="M26" s="0" t="n">
+      <c r="N26" s="0" t="n">
         <v>240000000.0</v>
       </c>
-      <c r="N26" s="0" t="n">
+      <c r="O26" s="0" t="n">
         <v>217000000.0</v>
       </c>
-      <c r="O26" s="0" t="n">
+      <c r="P26" s="0" t="n">
         <v>188000000.0</v>
       </c>
-      <c r="P26" s="0" t="n">
+      <c r="Q26" s="0" t="n">
         <v>219000000.0</v>
       </c>
-      <c r="Q26" s="0" t="n">
+      <c r="R26" s="0" t="n">
         <v>212000000.0</v>
       </c>
-      <c r="R26" s="0" t="n">
+      <c r="S26" s="0" t="n">
         <v>207000000.0</v>
       </c>
-      <c r="S26" s="0" t="n">
+      <c r="T26" s="0" t="n">
         <v>203000000.0</v>
       </c>
-      <c r="T26" s="0" t="n">
+      <c r="U26" s="0" t="n">
         <v>184000000.0</v>
       </c>
-      <c r="U26" s="0" t="n">
+      <c r="V26" s="0" t="n">
         <v>178100000.0</v>
       </c>
-      <c r="V26" s="0" t="n">
+      <c r="W26" s="0" t="n">
         <v>175100000.0</v>
       </c>
-      <c r="W26" s="0" t="n">
+      <c r="X26" s="0" t="n">
         <v>171900000.0</v>
       </c>
-      <c r="X26" s="0" t="n">
+      <c r="Y26" s="0" t="n">
         <v>165000000.0</v>
       </c>
-      <c r="Y26" s="0" t="n">
+      <c r="Z26" s="0" t="n">
         <v>161700000.0</v>
       </c>
-      <c r="Z26" s="0" t="n">
+      <c r="AA26" s="0" t="n">
         <v>158600000.0</v>
       </c>
-      <c r="AA26" s="0" t="n">
+      <c r="AB26" s="0" t="n">
         <v>158400000.0</v>
       </c>
-      <c r="AB26" s="0" t="n">
+      <c r="AC26" s="0" t="n">
         <v>152600000.0</v>
       </c>
-      <c r="AC26" s="0" t="n">
+      <c r="AD26" s="0" t="n">
         <v>152200000.0</v>
       </c>
-      <c r="AD26" s="0" t="n">
+      <c r="AE26" s="0" t="n">
         <v>151900000.0</v>
       </c>
-      <c r="AE26" s="0" t="n">
+      <c r="AF26" s="0" t="n">
         <v>147600000.0</v>
       </c>
-      <c r="AF26" s="0" t="n">
+      <c r="AG26" s="0" t="n">
         <v>145800000.0</v>
       </c>
-      <c r="AG26" s="0" t="n">
+      <c r="AH26" s="0" t="n">
         <v>142100000.0</v>
       </c>
-      <c r="AH26" s="0" t="n">
+      <c r="AI26" s="0" t="n">
         <v>136900000.0</v>
       </c>
-      <c r="AI26" s="0" t="n">
+      <c r="AJ26" s="0" t="n">
         <v>133800000.0</v>
       </c>
-      <c r="AJ26" s="0" t="n">
+      <c r="AK26" s="0" t="n">
         <v>124700000.0</v>
       </c>
-      <c r="AK26" s="0" t="n">
+      <c r="AL26" s="0" t="n">
         <v>121300000.0</v>
       </c>
-      <c r="AL26" s="0" t="n">
+      <c r="AM26" s="0" t="n">
         <v>117000000.0</v>
       </c>
-      <c r="AM26" s="0" t="n">
+      <c r="AN26" s="0" t="n">
         <v>109600000.0</v>
       </c>
-      <c r="AN26" s="0" t="n">
+      <c r="AO26" s="0" t="n">
         <v>94800000.0</v>
       </c>
     </row>
@@ -3580,109 +3707,109 @@
         </is>
       </c>
       <c r="B27" s="0" t="n">
+        <v>-1000000.0</v>
+      </c>
+      <c r="C27" s="0" t="n">
         <v>-541000000.0</v>
       </c>
-      <c r="C27" s="0" t="n">
+      <c r="D27" s="0" t="n">
         <v>-521000000.0</v>
       </c>
-      <c r="D27" s="0" t="n">
+      <c r="E27" s="0" t="n">
         <v>-503000000.0</v>
       </c>
-      <c r="E27" s="0" t="n">
+      <c r="F27" s="0" t="n">
         <v>-658000000.0</v>
       </c>
-      <c r="F27" s="0" t="n">
+      <c r="G27" s="0" t="n">
         <v>-642000000.0</v>
       </c>
-      <c r="G27" s="0" t="n">
+      <c r="H27" s="0" t="n">
         <v>-624000000.0</v>
       </c>
-      <c r="H27" s="0" t="n">
+      <c r="I27" s="0" t="n">
         <v>-609000000.0</v>
       </c>
-      <c r="I27" s="0" t="n">
+      <c r="J27" s="0" t="n">
         <v>-592000000.0</v>
       </c>
-      <c r="J27" s="0" t="n">
+      <c r="K27" s="0" t="n">
         <v>-576000000.0</v>
       </c>
-      <c r="K27" s="0" t="n">
+      <c r="L27" s="0" t="n">
         <v>-561000000.0</v>
       </c>
-      <c r="L27" s="0" t="n">
+      <c r="M27" s="0" t="n">
         <v>-546000000.0</v>
       </c>
-      <c r="M27" s="0" t="n">
+      <c r="N27" s="0" t="n">
         <v>-532000000.0</v>
       </c>
-      <c r="N27" s="0" t="n">
+      <c r="O27" s="0" t="n">
         <v>-517000000.0</v>
       </c>
-      <c r="O27" s="0" t="n">
+      <c r="P27" s="0" t="n">
         <v>-501000000.0</v>
       </c>
-      <c r="P27" s="0" t="n">
+      <c r="Q27" s="0" t="n">
         <v>-486000000.0</v>
       </c>
-      <c r="Q27" s="0" t="n">
+      <c r="R27" s="0" t="n">
         <v>-472000000.0</v>
       </c>
-      <c r="R27" s="0" t="n">
+      <c r="S27" s="0" t="n">
         <v>-458000000.0</v>
       </c>
-      <c r="S27" s="0" t="n">
+      <c r="T27" s="0" t="n">
         <v>-444000000.0</v>
       </c>
-      <c r="T27" s="0" t="n">
+      <c r="U27" s="0" t="n">
         <v>-423000000.0</v>
       </c>
-      <c r="U27" s="0" t="n">
+      <c r="V27" s="0" t="n">
         <v>-402200000.0</v>
       </c>
-      <c r="V27" s="0" t="n">
+      <c r="W27" s="0" t="n">
         <v>-382100000.0</v>
       </c>
-      <c r="W27" s="0" t="n">
+      <c r="X27" s="0" t="n">
         <v>-362500000.0</v>
       </c>
-      <c r="X27" s="0" t="n">
+      <c r="Y27" s="0" t="n">
         <v>-350000000.0</v>
       </c>
-      <c r="Y27" s="0" t="n">
+      <c r="Z27" s="0" t="n">
         <v>-336400000.0</v>
       </c>
-      <c r="Z27" s="0" t="n">
+      <c r="AA27" s="0" t="n">
         <v>-322300000.0</v>
       </c>
-      <c r="AA27" s="0" t="n">
+      <c r="AB27" s="0" t="n">
         <v>-309500000.0</v>
       </c>
-      <c r="AB27" s="0" t="n">
+      <c r="AC27" s="0" t="n">
         <v>-301800000.0</v>
       </c>
-      <c r="AC27" s="0" t="n">
+      <c r="AD27" s="0" t="n">
         <v>-295100000.0</v>
       </c>
-      <c r="AD27" s="0" t="n">
+      <c r="AE27" s="0" t="n">
         <v>-288100000.0</v>
       </c>
-      <c r="AE27" s="0" t="n">
+      <c r="AF27" s="0" t="n">
         <v>-488500000.0</v>
       </c>
-      <c r="AF27" s="0" t="n">
+      <c r="AG27" s="0" t="n">
         <v>-419200000.0</v>
       </c>
-      <c r="AG27" s="0" t="n">
+      <c r="AH27" s="0" t="n">
         <v>-349300000.0</v>
       </c>
-      <c r="AH27" s="0" t="n">
+      <c r="AI27" s="0" t="n">
         <v>-279500000.0</v>
       </c>
-      <c r="AI27" s="0" t="n">
+      <c r="AJ27" s="0" t="n">
         <v>-204200000.0</v>
-      </c>
-      <c r="AJ27" s="0" t="n">
-        <v>-204000000.0</v>
       </c>
       <c r="AK27" s="0" t="n">
         <v>-204000000.0</v>
@@ -3691,9 +3818,12 @@
         <v>-204000000.0</v>
       </c>
       <c r="AM27" s="0" t="n">
+        <v>-204000000.0</v>
+      </c>
+      <c r="AN27" s="0" t="n">
         <v>-148200000.0</v>
       </c>
-      <c r="AN27" s="0" t="n">
+      <c r="AO27" s="0" t="n">
         <v>-148000000.0</v>
       </c>
     </row>
@@ -3703,121 +3833,126 @@
           <t>Assets Liabilities Change (Total)</t>
         </is>
       </c>
-      <c r="B28" s="0" t="n">
+      <c r="B28" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C28" s="0" t="n">
         <v>589000000.0</v>
       </c>
-      <c r="C28" s="0" t="n">
+      <c r="D28" s="0" t="n">
         <v>623000000.0</v>
       </c>
-      <c r="D28" s="0" t="n">
+      <c r="E28" s="0" t="n">
         <v>-11000000.0</v>
       </c>
-      <c r="E28" s="0" t="n">
+      <c r="F28" s="0" t="n">
         <v>72000000.0</v>
       </c>
-      <c r="F28" s="0" t="n">
+      <c r="G28" s="0" t="n">
         <v>-355000000.0</v>
       </c>
-      <c r="G28" s="0" t="n">
+      <c r="H28" s="0" t="n">
         <v>-190000000.0</v>
       </c>
-      <c r="H28" s="0" t="n">
+      <c r="I28" s="0" t="n">
         <v>-2000000.0</v>
       </c>
-      <c r="I28" s="0" t="n">
+      <c r="J28" s="0" t="n">
         <v>-234000000.0</v>
       </c>
-      <c r="J28" s="0" t="n">
+      <c r="K28" s="0" t="n">
         <v>-7000000.0</v>
       </c>
-      <c r="K28" s="0" t="n">
+      <c r="L28" s="0" t="n">
         <v>302000000.0</v>
       </c>
-      <c r="L28" s="0" t="n">
+      <c r="M28" s="0" t="n">
         <v>564000000.0</v>
       </c>
-      <c r="M28" s="0" t="n">
+      <c r="N28" s="0" t="n">
         <v>538000000.0</v>
       </c>
-      <c r="N28" s="0" t="n">
+      <c r="O28" s="0" t="n">
         <v>584000000.0</v>
       </c>
-      <c r="O28" s="0" t="n">
+      <c r="P28" s="0" t="n">
         <v>79000000.0</v>
       </c>
-      <c r="P28" s="0" t="n">
+      <c r="Q28" s="0" t="n">
         <v>11000000.0</v>
       </c>
-      <c r="Q28" s="0" t="n">
+      <c r="R28" s="0" t="n">
         <v>123000000.0</v>
       </c>
-      <c r="R28" s="0" t="n">
+      <c r="S28" s="0" t="n">
         <v>55000000.0</v>
       </c>
-      <c r="S28" s="0" t="n">
+      <c r="T28" s="0" t="n">
         <v>0.0</v>
       </c>
-      <c r="T28" s="0" t="n">
+      <c r="U28" s="0" t="n">
         <v>145000000.0</v>
       </c>
-      <c r="U28" s="0" t="n">
+      <c r="V28" s="0" t="n">
         <v>116100000.0</v>
       </c>
-      <c r="V28" s="0" t="n">
+      <c r="W28" s="0" t="n">
         <v>184300000.0</v>
       </c>
-      <c r="W28" s="0" t="n">
+      <c r="X28" s="0" t="n">
         <v>139000000.0</v>
       </c>
-      <c r="X28" s="0" t="n">
+      <c r="Y28" s="0" t="n">
         <v>349000000.0</v>
       </c>
-      <c r="Y28" s="0" t="n">
+      <c r="Z28" s="0" t="n">
         <v>67800000.0</v>
       </c>
-      <c r="Z28" s="0" t="n">
+      <c r="AA28" s="0" t="n">
         <v>71600000.0</v>
       </c>
-      <c r="AA28" s="0" t="n">
+      <c r="AB28" s="0" t="n">
         <v>-51500000.0</v>
       </c>
-      <c r="AB28" s="0" t="n">
+      <c r="AC28" s="0" t="n">
         <v>-195300000.0</v>
       </c>
-      <c r="AC28" s="0" t="n">
+      <c r="AD28" s="0" t="n">
         <v>-107300000.0</v>
       </c>
-      <c r="AD28" s="0" t="n">
+      <c r="AE28" s="0" t="n">
         <v>-128200000.0</v>
       </c>
-      <c r="AE28" s="0" t="n">
+      <c r="AF28" s="0" t="n">
         <v>-63300000.0</v>
       </c>
-      <c r="AF28" s="0" t="n">
+      <c r="AG28" s="0" t="n">
         <v>-208300000.0</v>
       </c>
-      <c r="AG28" s="0" t="n">
+      <c r="AH28" s="0" t="n">
         <v>-166200000.0</v>
       </c>
-      <c r="AH28" s="0" t="n">
+      <c r="AI28" s="0" t="n">
         <v>-98200000.0</v>
       </c>
-      <c r="AI28" s="0" t="n">
+      <c r="AJ28" s="0" t="n">
         <v>-177300000.0</v>
       </c>
-      <c r="AJ28" s="0" t="n">
+      <c r="AK28" s="0" t="n">
         <v>-57600000.0</v>
       </c>
-      <c r="AK28" s="0" t="n">
+      <c r="AL28" s="0" t="n">
         <v>-2400000.0</v>
       </c>
-      <c r="AL28" s="0" t="n">
+      <c r="AM28" s="0" t="n">
         <v>-55900000.0</v>
       </c>
-      <c r="AM28" s="0" t="n">
+      <c r="AN28" s="0" t="n">
         <v>-112500000.0</v>
       </c>
-      <c r="AN28" s="0" t="n">
+      <c r="AO28" s="0" t="n">
         <v>-33600000.0</v>
       </c>
     </row>
@@ -3827,112 +3962,112 @@
           <t>Investments Change (Net)</t>
         </is>
       </c>
-      <c r="B29" s="0" t="n">
+      <c r="B29" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C29" s="0" t="n">
         <v>-182000000.0</v>
       </c>
-      <c r="C29" s="0" t="n">
+      <c r="D29" s="0" t="n">
         <v>-177000000.0</v>
       </c>
-      <c r="D29" s="0" t="n">
+      <c r="E29" s="0" t="n">
         <v>-28000000.0</v>
       </c>
-      <c r="E29" s="0" t="n">
+      <c r="F29" s="0" t="n">
         <v>-42000000.0</v>
       </c>
-      <c r="F29" s="0" t="n">
+      <c r="G29" s="0" t="n">
         <v>939000000.0</v>
       </c>
-      <c r="G29" s="0" t="n">
+      <c r="H29" s="0" t="n">
         <v>1226000000.0</v>
       </c>
-      <c r="H29" s="0" t="n">
+      <c r="I29" s="0" t="n">
         <v>1215000000.0</v>
       </c>
-      <c r="I29" s="0" t="n">
+      <c r="J29" s="0" t="n">
         <v>1262000000.0</v>
       </c>
-      <c r="J29" s="0" t="n">
+      <c r="K29" s="0" t="n">
         <v>398000000.0</v>
       </c>
-      <c r="K29" s="0" t="n">
+      <c r="L29" s="0" t="n">
         <v>94000000.0</v>
       </c>
-      <c r="L29" s="0" t="n">
+      <c r="M29" s="0" t="n">
         <v>271000000.0</v>
       </c>
-      <c r="M29" s="0" t="n">
+      <c r="N29" s="0" t="n">
         <v>295000000.0</v>
       </c>
-      <c r="N29" s="0" t="n">
+      <c r="O29" s="0" t="n">
         <v>-70000000.0</v>
       </c>
-      <c r="O29" s="0" t="n">
+      <c r="P29" s="0" t="n">
         <v>105000000.0</v>
       </c>
-      <c r="P29" s="0" t="n">
+      <c r="Q29" s="0" t="n">
         <v>-41000000.0</v>
       </c>
-      <c r="Q29" s="0" t="n">
+      <c r="R29" s="0" t="n">
         <v>-93000000.0</v>
       </c>
-      <c r="R29" s="0" t="n">
+      <c r="S29" s="0" t="n">
         <v>-82000000.0</v>
       </c>
-      <c r="S29" s="0" t="n">
+      <c r="T29" s="0" t="n">
         <v>-171000000.0</v>
       </c>
-      <c r="T29" s="0" t="n">
+      <c r="U29" s="0" t="n">
         <v>-643000000.0</v>
       </c>
-      <c r="U29" s="0" t="n">
+      <c r="V29" s="0" t="n">
         <v>-872300000.0</v>
       </c>
-      <c r="V29" s="0" t="n">
+      <c r="W29" s="0" t="n">
         <v>-804700000.0</v>
       </c>
-      <c r="W29" s="0" t="n">
+      <c r="X29" s="0" t="n">
         <v>-1365400000.0</v>
       </c>
-      <c r="X29" s="0" t="n">
+      <c r="Y29" s="0" t="n">
         <v>-902000000.0</v>
       </c>
-      <c r="Y29" s="0" t="n">
+      <c r="Z29" s="0" t="n">
         <v>-691700000.0</v>
       </c>
-      <c r="Z29" s="0" t="n">
+      <c r="AA29" s="0" t="n">
         <v>-490900000.0</v>
       </c>
-      <c r="AA29" s="0" t="n">
+      <c r="AB29" s="0" t="n">
         <v>16200000.0</v>
       </c>
-      <c r="AB29" s="0" t="n">
+      <c r="AC29" s="0" t="n">
         <v>8600000.0</v>
       </c>
-      <c r="AC29" s="0" t="n">
+      <c r="AD29" s="0" t="n">
         <v>14100000.0</v>
       </c>
-      <c r="AD29" s="0" t="n">
+      <c r="AE29" s="0" t="n">
         <v>3600000.0</v>
       </c>
-      <c r="AE29" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AF29" s="0" t="n">
+      <c r="AF29" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AG29" s="0" t="n">
         <v>4200000.0</v>
       </c>
-      <c r="AG29" s="0" t="n">
+      <c r="AH29" s="0" t="n">
         <v>3600000.0</v>
       </c>
-      <c r="AH29" s="0" t="n">
+      <c r="AI29" s="0" t="n">
         <v>-1900000.0</v>
       </c>
-      <c r="AI29" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="AJ29" s="0" t="inlineStr">
         <is>
           <t/>
@@ -3954,6 +4089,11 @@
         </is>
       </c>
       <c r="AN29" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO29" s="0" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -3965,121 +4105,126 @@
           <t>Issuance/Purchase of Shares</t>
         </is>
       </c>
-      <c r="B30" s="0" t="n">
+      <c r="B30" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C30" s="0" t="n">
         <v>-182000000.0</v>
       </c>
-      <c r="C30" s="0" t="n">
+      <c r="D30" s="0" t="n">
         <v>-605000000.0</v>
       </c>
-      <c r="D30" s="0" t="n">
+      <c r="E30" s="0" t="n">
         <v>-893000000.0</v>
       </c>
-      <c r="E30" s="0" t="n">
+      <c r="F30" s="0" t="n">
         <v>-1094000000.0</v>
       </c>
-      <c r="F30" s="0" t="n">
+      <c r="G30" s="0" t="n">
         <v>-1242000000.0</v>
       </c>
-      <c r="G30" s="0" t="n">
+      <c r="H30" s="0" t="n">
         <v>-1338000000.0</v>
       </c>
-      <c r="H30" s="0" t="n">
+      <c r="I30" s="0" t="n">
         <v>-1555000000.0</v>
       </c>
-      <c r="I30" s="0" t="n">
+      <c r="J30" s="0" t="n">
         <v>-1427000000.0</v>
       </c>
-      <c r="J30" s="0" t="n">
+      <c r="K30" s="0" t="n">
         <v>-1487000000.0</v>
       </c>
-      <c r="K30" s="0" t="n">
+      <c r="L30" s="0" t="n">
         <v>-1178000000.0</v>
       </c>
-      <c r="L30" s="0" t="n">
+      <c r="M30" s="0" t="n">
         <v>-759000000.0</v>
       </c>
-      <c r="M30" s="0" t="n">
+      <c r="N30" s="0" t="n">
         <v>-726000000.0</v>
       </c>
-      <c r="N30" s="0" t="n">
+      <c r="O30" s="0" t="n">
         <v>-448000000.0</v>
       </c>
-      <c r="O30" s="0" t="n">
+      <c r="P30" s="0" t="n">
         <v>-302000000.0</v>
       </c>
-      <c r="P30" s="0" t="n">
+      <c r="Q30" s="0" t="n">
         <v>-413000000.0</v>
       </c>
-      <c r="Q30" s="0" t="n">
+      <c r="R30" s="0" t="n">
         <v>-550000000.0</v>
       </c>
-      <c r="R30" s="0" t="n">
+      <c r="S30" s="0" t="n">
         <v>-625000000.0</v>
       </c>
-      <c r="S30" s="0" t="n">
+      <c r="T30" s="0" t="n">
         <v>-725000000.0</v>
       </c>
-      <c r="T30" s="0" t="n">
+      <c r="U30" s="0" t="n">
         <v>-890000000.0</v>
       </c>
-      <c r="U30" s="0" t="n">
+      <c r="V30" s="0" t="n">
         <v>-1059900000.0</v>
       </c>
-      <c r="V30" s="0" t="n">
+      <c r="W30" s="0" t="n">
         <v>-1132400000.0</v>
       </c>
-      <c r="W30" s="0" t="n">
+      <c r="X30" s="0" t="n">
         <v>-1163000000.0</v>
       </c>
-      <c r="X30" s="0" t="n">
+      <c r="Y30" s="0" t="n">
         <v>-983000000.0</v>
       </c>
-      <c r="Y30" s="0" t="n">
+      <c r="Z30" s="0" t="n">
         <v>-693000000.0</v>
       </c>
-      <c r="Z30" s="0" t="n">
+      <c r="AA30" s="0" t="n">
         <v>-940900000.0</v>
       </c>
-      <c r="AA30" s="0" t="n">
+      <c r="AB30" s="0" t="n">
         <v>-814700000.0</v>
       </c>
-      <c r="AB30" s="0" t="n">
+      <c r="AC30" s="0" t="n">
         <v>-667200000.0</v>
       </c>
-      <c r="AC30" s="0" t="n">
+      <c r="AD30" s="0" t="n">
         <v>-624800000.0</v>
       </c>
-      <c r="AD30" s="0" t="n">
+      <c r="AE30" s="0" t="n">
         <v>-266100000.0</v>
       </c>
-      <c r="AE30" s="0" t="n">
+      <c r="AF30" s="0" t="n">
         <v>-281800000.0</v>
       </c>
-      <c r="AF30" s="0" t="n">
+      <c r="AG30" s="0" t="n">
         <v>-387700000.0</v>
       </c>
-      <c r="AG30" s="0" t="n">
+      <c r="AH30" s="0" t="n">
         <v>-405900000.0</v>
       </c>
-      <c r="AH30" s="0" t="n">
+      <c r="AI30" s="0" t="n">
         <v>-396800000.0</v>
       </c>
-      <c r="AI30" s="0" t="n">
+      <c r="AJ30" s="0" t="n">
         <v>-355200000.0</v>
       </c>
-      <c r="AJ30" s="0" t="n">
+      <c r="AK30" s="0" t="n">
         <v>-592700000.0</v>
       </c>
-      <c r="AK30" s="0" t="n">
+      <c r="AL30" s="0" t="n">
         <v>-600000000.0</v>
       </c>
-      <c r="AL30" s="0" t="n">
+      <c r="AM30" s="0" t="n">
         <v>-746000000.0</v>
       </c>
-      <c r="AM30" s="0" t="n">
+      <c r="AN30" s="0" t="n">
         <v>-655700000.0</v>
       </c>
-      <c r="AN30" s="0" t="n">
+      <c r="AO30" s="0" t="n">
         <v>-396600000.0</v>
       </c>
     </row>
@@ -4089,121 +4234,126 @@
           <t>Capital Stock Change</t>
         </is>
       </c>
-      <c r="B31" s="0" t="n">
+      <c r="B31" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C31" s="0" t="n">
         <v>-182000000.0</v>
       </c>
-      <c r="C31" s="0" t="n">
+      <c r="D31" s="0" t="n">
         <v>-605000000.0</v>
       </c>
-      <c r="D31" s="0" t="n">
+      <c r="E31" s="0" t="n">
         <v>-893000000.0</v>
       </c>
-      <c r="E31" s="0" t="n">
+      <c r="F31" s="0" t="n">
         <v>-1094000000.0</v>
       </c>
-      <c r="F31" s="0" t="n">
+      <c r="G31" s="0" t="n">
         <v>-1242000000.0</v>
       </c>
-      <c r="G31" s="0" t="n">
+      <c r="H31" s="0" t="n">
         <v>-1338000000.0</v>
       </c>
-      <c r="H31" s="0" t="n">
+      <c r="I31" s="0" t="n">
         <v>-1555000000.0</v>
       </c>
-      <c r="I31" s="0" t="n">
+      <c r="J31" s="0" t="n">
         <v>-1427000000.0</v>
       </c>
-      <c r="J31" s="0" t="n">
+      <c r="K31" s="0" t="n">
         <v>-1487000000.0</v>
       </c>
-      <c r="K31" s="0" t="n">
+      <c r="L31" s="0" t="n">
         <v>-1178000000.0</v>
       </c>
-      <c r="L31" s="0" t="n">
+      <c r="M31" s="0" t="n">
         <v>-759000000.0</v>
       </c>
-      <c r="M31" s="0" t="n">
+      <c r="N31" s="0" t="n">
         <v>-726000000.0</v>
       </c>
-      <c r="N31" s="0" t="n">
+      <c r="O31" s="0" t="n">
         <v>-448000000.0</v>
       </c>
-      <c r="O31" s="0" t="n">
+      <c r="P31" s="0" t="n">
         <v>-302000000.0</v>
       </c>
-      <c r="P31" s="0" t="n">
+      <c r="Q31" s="0" t="n">
         <v>-413000000.0</v>
       </c>
-      <c r="Q31" s="0" t="n">
+      <c r="R31" s="0" t="n">
         <v>-550000000.0</v>
       </c>
-      <c r="R31" s="0" t="n">
+      <c r="S31" s="0" t="n">
         <v>-625000000.0</v>
       </c>
-      <c r="S31" s="0" t="n">
+      <c r="T31" s="0" t="n">
         <v>-725000000.0</v>
       </c>
-      <c r="T31" s="0" t="n">
+      <c r="U31" s="0" t="n">
         <v>-890000000.0</v>
       </c>
-      <c r="U31" s="0" t="n">
+      <c r="V31" s="0" t="n">
         <v>-1059900000.0</v>
       </c>
-      <c r="V31" s="0" t="n">
+      <c r="W31" s="0" t="n">
         <v>-1132400000.0</v>
       </c>
-      <c r="W31" s="0" t="n">
+      <c r="X31" s="0" t="n">
         <v>-1163000000.0</v>
       </c>
-      <c r="X31" s="0" t="n">
+      <c r="Y31" s="0" t="n">
         <v>-983000000.0</v>
       </c>
-      <c r="Y31" s="0" t="n">
+      <c r="Z31" s="0" t="n">
         <v>-693000000.0</v>
       </c>
-      <c r="Z31" s="0" t="n">
+      <c r="AA31" s="0" t="n">
         <v>-940900000.0</v>
       </c>
-      <c r="AA31" s="0" t="n">
+      <c r="AB31" s="0" t="n">
         <v>-814700000.0</v>
       </c>
-      <c r="AB31" s="0" t="n">
+      <c r="AC31" s="0" t="n">
         <v>-667200000.0</v>
       </c>
-      <c r="AC31" s="0" t="n">
+      <c r="AD31" s="0" t="n">
         <v>-624800000.0</v>
       </c>
-      <c r="AD31" s="0" t="n">
+      <c r="AE31" s="0" t="n">
         <v>-266100000.0</v>
       </c>
-      <c r="AE31" s="0" t="n">
+      <c r="AF31" s="0" t="n">
         <v>-281800000.0</v>
       </c>
-      <c r="AF31" s="0" t="n">
+      <c r="AG31" s="0" t="n">
         <v>-387700000.0</v>
       </c>
-      <c r="AG31" s="0" t="n">
+      <c r="AH31" s="0" t="n">
         <v>-405900000.0</v>
       </c>
-      <c r="AH31" s="0" t="n">
+      <c r="AI31" s="0" t="n">
         <v>-396800000.0</v>
       </c>
-      <c r="AI31" s="0" t="n">
+      <c r="AJ31" s="0" t="n">
         <v>-355200000.0</v>
       </c>
-      <c r="AJ31" s="0" t="n">
+      <c r="AK31" s="0" t="n">
         <v>-592700000.0</v>
       </c>
-      <c r="AK31" s="0" t="n">
+      <c r="AL31" s="0" t="n">
         <v>-600000000.0</v>
       </c>
-      <c r="AL31" s="0" t="n">
+      <c r="AM31" s="0" t="n">
         <v>-746000000.0</v>
       </c>
-      <c r="AM31" s="0" t="n">
+      <c r="AN31" s="0" t="n">
         <v>-655700000.0</v>
       </c>
-      <c r="AN31" s="0" t="n">
+      <c r="AO31" s="0" t="n">
         <v>-396600000.0</v>
       </c>
     </row>
